--- a/Resources/2000/Master_2000.xlsx
+++ b/Resources/2000/Master_2000.xlsx
@@ -3726,10 +3726,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO2">
-        <v>37.56906077348066</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP2">
-        <v>109.6774193548387</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="3" spans="1:68">
@@ -3932,10 +3932,10 @@
         <v>15.09715994020926</v>
       </c>
       <c r="BO3">
-        <v>55.80110497237568</v>
+        <v>24.30939226519337</v>
       </c>
       <c r="BP3">
-        <v>162.9032258064516</v>
+        <v>28.2258064516129</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -4138,10 +4138,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BO4">
-        <v>24.30939226519337</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP4">
-        <v>70.96774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -4344,10 +4344,10 @@
         <v>15.39611360239163</v>
       </c>
       <c r="BO5">
-        <v>56.9060773480663</v>
+        <v>27.90055248618784</v>
       </c>
       <c r="BP5">
-        <v>166.1290322580645</v>
+        <v>31.45161290322581</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -4550,10 +4550,10 @@
         <v>3.213751868460388</v>
       </c>
       <c r="BO6">
-        <v>11.87845303867403</v>
+        <v>-1.933701657458563</v>
       </c>
       <c r="BP6">
-        <v>34.6774193548387</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -4756,10 +4756,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO7">
-        <v>36.46408839779005</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BP7">
-        <v>106.4516129032258</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -4962,10 +4962,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BO8">
-        <v>46.68508287292817</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BP8">
-        <v>136.2903225806452</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -5168,10 +5168,10 @@
         <v>13.00448430493273</v>
       </c>
       <c r="BO9">
-        <v>48.06629834254143</v>
+        <v>20.16574585635359</v>
       </c>
       <c r="BP9">
-        <v>140.3225806451613</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -5374,10 +5374,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO10">
-        <v>32.59668508287293</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BP10">
-        <v>95.16129032258065</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -5580,10 +5580,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO11">
-        <v>38.12154696132596</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BP11">
-        <v>111.2903225806452</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -5786,10 +5786,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO12">
-        <v>41.71270718232044</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP12">
-        <v>121.7741935483871</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -5992,10 +5992,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BO13">
-        <v>35.91160220994475</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BP13">
-        <v>104.8387096774193</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -6198,10 +6198,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BO14">
-        <v>29.55801104972375</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP14">
-        <v>86.29032258064515</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -6404,10 +6404,10 @@
         <v>14.57399103139013</v>
       </c>
       <c r="BO15">
-        <v>53.86740331491713</v>
+        <v>22.09944751381216</v>
       </c>
       <c r="BP15">
-        <v>157.258064516129</v>
+        <v>33.87096774193549</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -6610,10 +6610,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BO16">
-        <v>39.77900552486188</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BP16">
-        <v>116.1290322580645</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -6816,10 +6816,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO17">
-        <v>33.70165745856353</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP17">
-        <v>98.38709677419354</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -7022,10 +7022,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BO18">
-        <v>28.17679558011049</v>
+        <v>0</v>
       </c>
       <c r="BP18">
-        <v>82.25806451612902</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -7225,10 +7225,10 @@
         <v>4.110612855007473</v>
       </c>
       <c r="BO19">
-        <v>15.19337016574586</v>
+        <v>-1.38121546961326</v>
       </c>
       <c r="BP19">
-        <v>44.35483870967742</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -7431,10 +7431,10 @@
         <v>5.007473841554559</v>
       </c>
       <c r="BO20">
-        <v>18.50828729281768</v>
+        <v>-1.38121546961326</v>
       </c>
       <c r="BP20">
-        <v>54.03225806451613</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -7637,10 +7637,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BO21">
-        <v>29.83425414364641</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BP21">
-        <v>87.09677419354838</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -7843,10 +7843,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BO22">
-        <v>38.67403314917127</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BP22">
-        <v>112.9032258064516</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -8049,10 +8049,10 @@
         <v>14.7982062780269</v>
       </c>
       <c r="BO23">
-        <v>54.69613259668508</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP23">
-        <v>159.6774193548387</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -8255,10 +8255,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO24">
-        <v>41.71270718232044</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BP24">
-        <v>121.7741935483871</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -8461,10 +8461,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BO25">
-        <v>40.33149171270718</v>
+        <v>20.71823204419889</v>
       </c>
       <c r="BP25">
-        <v>117.7419354838709</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -8667,10 +8667,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BO26">
-        <v>26.24309392265193</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP26">
-        <v>76.61290322580645</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -8873,10 +8873,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BO27">
-        <v>43.92265193370166</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BP27">
-        <v>128.2258064516129</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -9079,10 +9079,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO28">
-        <v>41.71270718232044</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP28">
-        <v>121.7741935483871</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -9285,10 +9285,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BO29">
-        <v>20.99447513812154</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP29">
-        <v>61.29032258064515</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -9485,10 +9485,10 @@
         <v>4.110612855007473</v>
       </c>
       <c r="BO30">
-        <v>15.19337016574586</v>
+        <v>0</v>
       </c>
       <c r="BP30">
-        <v>44.35483870967742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -9691,10 +9691,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BO31">
-        <v>26.79558011049724</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP31">
-        <v>78.2258064516129</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -9891,10 +9891,10 @@
         <v>-19.05829596412556</v>
       </c>
       <c r="BO32">
-        <v>-70.44198895027624</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP32">
-        <v>-205.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -10097,10 +10097,10 @@
         <v>12.33183856502242</v>
       </c>
       <c r="BO33">
-        <v>45.58011049723756</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP33">
-        <v>133.0645161290323</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -10303,10 +10303,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BO34">
-        <v>46.13259668508287</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BP34">
-        <v>134.6774193548387</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -10509,10 +10509,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BO35">
-        <v>29.00552486187845</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP35">
-        <v>84.67741935483872</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -10715,10 +10715,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO36">
-        <v>41.71270718232044</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BP36">
-        <v>121.7741935483871</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -10921,10 +10921,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BO37">
-        <v>24.86187845303867</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BP37">
-        <v>72.58064516129032</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -11127,10 +11127,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BO38">
-        <v>34.53038674033149</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BP38">
-        <v>100.8064516129032</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -11330,10 +11330,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BO39">
-        <v>29.00552486187845</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP39">
-        <v>84.67741935483872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -11533,10 +11533,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO40">
-        <v>32.87292817679558</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP40">
-        <v>95.96774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -11739,10 +11739,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BO41">
-        <v>41.43646408839778</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP41">
-        <v>120.9677419354839</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -11945,10 +11945,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BO42">
-        <v>27.62430939226519</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP42">
-        <v>80.64516129032258</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -12151,10 +12151,10 @@
         <v>5.007473841554559</v>
       </c>
       <c r="BO43">
-        <v>18.50828729281768</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP43">
-        <v>54.03225806451613</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -12357,10 +12357,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO44">
-        <v>32.59668508287293</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP44">
-        <v>95.16129032258065</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -12560,10 +12560,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO45">
-        <v>36.74033149171271</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP45">
-        <v>107.258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -12766,10 +12766,10 @@
         <v>14.94768310911808</v>
       </c>
       <c r="BO46">
-        <v>55.24861878453038</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BP46">
-        <v>161.2903225806452</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -12972,10 +12972,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BO47">
-        <v>46.96132596685082</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP47">
-        <v>137.0967741935484</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -13172,10 +13172,10 @@
         <v>-0.2989536621823617</v>
       </c>
       <c r="BO48">
-        <v>-1.104972375690608</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP48">
-        <v>-3.225806451612903</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -13378,10 +13378,10 @@
         <v>15.39611360239163</v>
       </c>
       <c r="BO49">
-        <v>56.9060773480663</v>
+        <v>20.71823204419889</v>
       </c>
       <c r="BP49">
-        <v>166.1290322580645</v>
+        <v>23.38709677419355</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -13584,10 +13584,10 @@
         <v>15.54559043348281</v>
       </c>
       <c r="BO50">
-        <v>57.4585635359116</v>
+        <v>23.75690607734806</v>
       </c>
       <c r="BP50">
-        <v>167.741935483871</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -13790,10 +13790,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BO51">
-        <v>26.24309392265193</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP51">
-        <v>76.61290322580645</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -13996,10 +13996,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO52">
-        <v>32.59668508287293</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BP52">
-        <v>95.16129032258065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -14202,10 +14202,10 @@
         <v>0.8221225710014948</v>
       </c>
       <c r="BO53">
-        <v>3.038674033149171</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP53">
-        <v>8.870967741935484</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -14408,10 +14408,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BO54">
-        <v>42.26519337016575</v>
+        <v>19.06077348066298</v>
       </c>
       <c r="BP54">
-        <v>123.3870967741936</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -14614,10 +14614,10 @@
         <v>5.455904334828101</v>
       </c>
       <c r="BO55">
-        <v>20.16574585635359</v>
+        <v>-2.209944751381215</v>
       </c>
       <c r="BP55">
-        <v>58.87096774193547</v>
+        <v>-12.09677419354839</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -14820,10 +14820,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BO56">
-        <v>19.33701657458563</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP56">
-        <v>56.4516129032258</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -15026,10 +15026,10 @@
         <v>16.21823617339312</v>
       </c>
       <c r="BO57">
-        <v>59.94475138121547</v>
+        <v>29.2817679558011</v>
       </c>
       <c r="BP57">
-        <v>175</v>
+        <v>37.90322580645162</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -15229,10 +15229,10 @@
         <v>6.651718983557549</v>
       </c>
       <c r="BO58">
-        <v>24.58563535911602</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BP58">
-        <v>71.7741935483871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -15435,10 +15435,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BO59">
-        <v>33.42541436464088</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP59">
-        <v>97.58064516129032</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -15641,10 +15641,10 @@
         <v>6.128550074738415</v>
       </c>
       <c r="BO60">
-        <v>22.65193370165745</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP60">
-        <v>66.12903225806451</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -15847,10 +15847,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BO61">
-        <v>30.93922651933701</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP61">
-        <v>90.32258064516128</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -16053,10 +16053,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO62">
-        <v>32.87292817679558</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP62">
-        <v>95.96774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -16259,10 +16259,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BO63">
-        <v>39.22651933701657</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BP63">
-        <v>114.516129032258</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -16465,10 +16465,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BO64">
-        <v>34.25414364640883</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP64">
-        <v>100</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -16668,10 +16668,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO65">
-        <v>34.80662983425414</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP65">
-        <v>101.6129032258064</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -16874,10 +16874,10 @@
         <v>14.20029895366218</v>
       </c>
       <c r="BO66">
-        <v>52.48618784530387</v>
+        <v>16.29834254143647</v>
       </c>
       <c r="BP66">
-        <v>153.2258064516129</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -17080,10 +17080,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BO67">
-        <v>40.33149171270718</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BP67">
-        <v>117.7419354838709</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -17283,10 +17283,10 @@
         <v>5.605381165919282</v>
       </c>
       <c r="BO68">
-        <v>20.71823204419889</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP68">
-        <v>60.48387096774194</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -17489,10 +17489,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BO69">
-        <v>29.83425414364641</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BP69">
-        <v>87.09677419354838</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -17695,10 +17695,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BO70">
-        <v>30.38674033149171</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP70">
-        <v>88.70967741935483</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -17901,10 +17901,10 @@
         <v>17.48878923766816</v>
       </c>
       <c r="BO71">
-        <v>64.64088397790054</v>
+        <v>32.59668508287293</v>
       </c>
       <c r="BP71">
-        <v>188.7096774193548</v>
+        <v>41.93548387096774</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -18107,10 +18107,10 @@
         <v>15.76980568011958</v>
       </c>
       <c r="BO72">
-        <v>58.28729281767956</v>
+        <v>25.41436464088397</v>
       </c>
       <c r="BP72">
-        <v>170.1612903225806</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -18313,10 +18313,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BO73">
-        <v>43.92265193370166</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BP73">
-        <v>128.2258064516129</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -18516,10 +18516,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BO74">
-        <v>38.95027624309392</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP74">
-        <v>113.7096774193548</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -18722,10 +18722,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BO75">
-        <v>50</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BP75">
-        <v>145.9677419354839</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -18928,10 +18928,10 @@
         <v>2.017937219730942</v>
       </c>
       <c r="BO76">
-        <v>7.458563535911603</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP76">
-        <v>21.7741935483871</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -19134,10 +19134,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BO77">
-        <v>25.96685082872928</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP77">
-        <v>75.80645161290323</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -19340,10 +19340,10 @@
         <v>5.007473841554559</v>
       </c>
       <c r="BO78">
-        <v>18.50828729281768</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BP78">
-        <v>54.03225806451613</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -19546,10 +19546,10 @@
         <v>6.651718983557549</v>
       </c>
       <c r="BO79">
-        <v>24.58563535911602</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP79">
-        <v>71.7741935483871</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -19752,10 +19752,10 @@
         <v>6.427503736920777</v>
       </c>
       <c r="BO80">
-        <v>23.75690607734806</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP80">
-        <v>69.35483870967741</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -19958,10 +19958,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BO81">
-        <v>43.64640883977901</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP81">
-        <v>127.4193548387097</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -20164,10 +20164,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BO82">
-        <v>43.92265193370166</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BP82">
-        <v>128.2258064516129</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -20370,10 +20370,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BO83">
-        <v>38.95027624309392</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP83">
-        <v>113.7096774193548</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -20576,10 +20576,10 @@
         <v>14.12556053811659</v>
       </c>
       <c r="BO84">
-        <v>52.20994475138121</v>
+        <v>17.95580110497237</v>
       </c>
       <c r="BP84">
-        <v>152.4193548387097</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -20782,10 +20782,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BO85">
-        <v>35.63535911602209</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP85">
-        <v>104.0322580645161</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -20982,10 +20982,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BO86">
-        <v>26.51933701657459</v>
+        <v>0</v>
       </c>
       <c r="BP86">
-        <v>77.41935483870968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -21188,10 +21188,10 @@
         <v>5.904334828101645</v>
       </c>
       <c r="BO87">
-        <v>21.8232044198895</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP87">
-        <v>63.70967741935484</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -21394,10 +21394,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO88">
-        <v>32.87292817679558</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP88">
-        <v>95.96774193548387</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -21600,10 +21600,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BO89">
-        <v>46.13259668508287</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BP89">
-        <v>134.6774193548387</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -21806,10 +21806,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BO90">
-        <v>34.53038674033149</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP90">
-        <v>100.8064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -22009,10 +22009,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BO91">
-        <v>38.67403314917127</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP91">
-        <v>112.9032258064516</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -22215,10 +22215,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BO92">
-        <v>35.63535911602209</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP92">
-        <v>104.0322580645161</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -22421,10 +22421,10 @@
         <v>4.857997010463378</v>
       </c>
       <c r="BO93">
-        <v>17.95580110497237</v>
+        <v>0</v>
       </c>
       <c r="BP93">
-        <v>52.41935483870967</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -22627,10 +22627,10 @@
         <v>11.13602391629297</v>
       </c>
       <c r="BO94">
-        <v>41.16022099447514</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP94">
-        <v>120.1612903225807</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -22833,10 +22833,10 @@
         <v>6.427503736920777</v>
       </c>
       <c r="BO95">
-        <v>23.75690607734806</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BP95">
-        <v>69.35483870967741</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -23036,10 +23036,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BO96">
-        <v>26.51933701657459</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP96">
-        <v>77.41935483870968</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -23242,10 +23242,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BO97">
-        <v>41.98895027624309</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BP97">
-        <v>122.5806451612903</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -23448,10 +23448,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BO98">
-        <v>29.55801104972375</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP98">
-        <v>86.29032258064515</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -23651,10 +23651,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO99">
-        <v>41.71270718232044</v>
+        <v>16.85082872928177</v>
       </c>
       <c r="BP99">
-        <v>121.7741935483871</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -23857,10 +23857,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BO100">
-        <v>35.63535911602209</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP100">
-        <v>104.0322580645161</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -24057,10 +24057,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BO101">
-        <v>23.48066298342541</v>
+        <v>0</v>
       </c>
       <c r="BP101">
-        <v>68.54838709677419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -24260,10 +24260,10 @@
         <v>13.00448430493273</v>
       </c>
       <c r="BO102">
-        <v>48.06629834254143</v>
+        <v>19.61325966850828</v>
       </c>
       <c r="BP102">
-        <v>140.3225806451613</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -24466,10 +24466,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BO103">
-        <v>28.17679558011049</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP103">
-        <v>82.25806451612902</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -24672,10 +24672,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BO104">
-        <v>29.83425414364641</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BP104">
-        <v>87.09677419354838</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -24878,10 +24878,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BO105">
-        <v>27.07182320441989</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP105">
-        <v>79.03225806451614</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -25084,10 +25084,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BO106">
-        <v>42.26519337016575</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP106">
-        <v>123.3870967741936</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -25290,10 +25290,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO107">
-        <v>36.46408839779005</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BP107">
-        <v>106.4516129032258</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -25493,10 +25493,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BO108">
-        <v>31.49171270718232</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BP108">
-        <v>91.93548387096774</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -25699,10 +25699,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO109">
-        <v>32.32044198895027</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP109">
-        <v>94.35483870967741</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -25905,10 +25905,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BO110">
-        <v>38.95027624309392</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP110">
-        <v>113.7096774193548</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -26111,10 +26111,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BO111">
-        <v>33.14917127071823</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP111">
-        <v>96.77419354838709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -26317,10 +26317,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BO112">
-        <v>43.0939226519337</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BP112">
-        <v>125.8064516129032</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -26523,10 +26523,10 @@
         <v>13.45291479820628</v>
       </c>
       <c r="BO113">
-        <v>49.72375690607734</v>
+        <v>19.88950276243094</v>
       </c>
       <c r="BP113">
-        <v>145.1612903225806</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -26729,10 +26729,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO114">
-        <v>36.74033149171271</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BP114">
-        <v>107.258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -26935,10 +26935,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BO115">
-        <v>42.54143646408839</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP115">
-        <v>124.1935483870968</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -27141,10 +27141,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BO116">
-        <v>30.11049723756906</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP116">
-        <v>87.90322580645162</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -27344,10 +27344,10 @@
         <v>4.559043348281016</v>
       </c>
       <c r="BO117">
-        <v>16.85082872928177</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP117">
-        <v>49.19354838709677</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="118" spans="1:68">
@@ -27550,10 +27550,10 @@
         <v>18.53512705530643</v>
       </c>
       <c r="BO118">
-        <v>68.50828729281767</v>
+        <v>35.91160220994475</v>
       </c>
       <c r="BP118">
-        <v>200</v>
+        <v>47.58064516129033</v>
       </c>
     </row>
     <row r="119" spans="1:68">
@@ -27756,10 +27756,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BO119">
-        <v>31.76795580110497</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BP119">
-        <v>92.74193548387096</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="120" spans="1:68">
@@ -27959,10 +27959,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO120">
-        <v>32.59668508287293</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP120">
-        <v>95.16129032258065</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -28165,10 +28165,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BO121">
-        <v>28.7292817679558</v>
+        <v>12.70718232044199</v>
       </c>
       <c r="BP121">
-        <v>83.87096774193549</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -28371,10 +28371,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BO122">
-        <v>24.30939226519337</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP122">
-        <v>70.96774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -28577,10 +28577,10 @@
         <v>6.502242152466367</v>
       </c>
       <c r="BO123">
-        <v>24.03314917127071</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP123">
-        <v>70.16129032258064</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -28783,10 +28783,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO124">
-        <v>38.39779005524861</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP124">
-        <v>112.0967741935484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -28986,10 +28986,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BO125">
-        <v>24.86187845303867</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP125">
-        <v>72.58064516129032</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -29189,10 +29189,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO126">
-        <v>32.59668508287293</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP126">
-        <v>95.16129032258065</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -29395,10 +29395,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BO127">
-        <v>46.68508287292817</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BP127">
-        <v>136.2903225806452</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -29601,10 +29601,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BO128">
-        <v>43.37016574585635</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BP128">
-        <v>126.6129032258064</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -29807,10 +29807,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BO129">
-        <v>33.97790055248619</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BP129">
-        <v>99.19354838709677</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -30013,10 +30013,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO130">
-        <v>32.59668508287293</v>
+        <v>7.458563535911603</v>
       </c>
       <c r="BP130">
-        <v>95.16129032258065</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -30219,10 +30219,10 @@
         <v>14.34977578475336</v>
       </c>
       <c r="BO131">
-        <v>53.03867403314917</v>
+        <v>22.92817679558011</v>
       </c>
       <c r="BP131">
-        <v>154.8387096774194</v>
+        <v>30.64516129032258</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -30425,10 +30425,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BO132">
-        <v>26.51933701657459</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BP132">
-        <v>77.41935483870968</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -30628,10 +30628,10 @@
         <v>15.02242152466368</v>
       </c>
       <c r="BO133">
-        <v>55.52486187845304</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BP133">
-        <v>162.0967741935484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -30834,10 +30834,10 @@
         <v>5.156950672645739</v>
       </c>
       <c r="BO134">
-        <v>19.06077348066298</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP134">
-        <v>55.64516129032258</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -31040,10 +31040,10 @@
         <v>19.13303437967115</v>
       </c>
       <c r="BO135">
-        <v>70.71823204419888</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP135">
-        <v>206.4516129032258</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -31246,10 +31246,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO136">
-        <v>32.32044198895027</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BP136">
-        <v>94.35483870967741</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -31449,10 +31449,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BO137">
-        <v>33.97790055248619</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP137">
-        <v>99.19354838709677</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="138" spans="1:68">
@@ -31655,10 +31655,10 @@
         <v>13.75186846038864</v>
       </c>
       <c r="BO138">
-        <v>50.82872928176795</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BP138">
-        <v>148.3870967741935</v>
+        <v>29.83870967741936</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -31858,10 +31858,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BO139">
-        <v>26.51933701657459</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP139">
-        <v>77.41935483870968</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -32064,10 +32064,10 @@
         <v>13.45291479820628</v>
       </c>
       <c r="BO140">
-        <v>49.72375690607734</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BP140">
-        <v>145.1612903225806</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -32270,10 +32270,10 @@
         <v>17.63826606875934</v>
       </c>
       <c r="BO141">
-        <v>65.19337016574586</v>
+        <v>32.04419889502762</v>
       </c>
       <c r="BP141">
-        <v>190.3225806451613</v>
+        <v>53.2258064516129</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -32473,10 +32473,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BO142">
-        <v>24.86187845303867</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP142">
-        <v>72.58064516129032</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -32676,10 +32676,10 @@
         <v>-2.914798206278026</v>
       </c>
       <c r="BO143">
-        <v>-10.77348066298342</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP143">
-        <v>-31.45161290322581</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -32882,10 +32882,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO144">
-        <v>32.87292817679558</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BP144">
-        <v>95.96774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -33088,10 +33088,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BO145">
-        <v>47.79005524861878</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BP145">
-        <v>139.5161290322581</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -33294,10 +33294,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO146">
-        <v>38.39779005524861</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BP146">
-        <v>112.0967741935484</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -33500,10 +33500,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BO147">
-        <v>33.42541436464088</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP147">
-        <v>97.58064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -33706,10 +33706,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BO148">
-        <v>41.98895027624309</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BP148">
-        <v>122.5806451612903</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -33912,10 +33912,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BO149">
-        <v>38.67403314917127</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP149">
-        <v>112.9032258064516</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -34118,10 +34118,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BO150">
-        <v>34.25414364640883</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP150">
-        <v>100</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -34324,10 +34324,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BO151">
-        <v>38.67403314917127</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BP151">
-        <v>112.9032258064516</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -34524,10 +34524,10 @@
         <v>5.979073243647234</v>
       </c>
       <c r="BO152">
-        <v>22.09944751381216</v>
+        <v>0</v>
       </c>
       <c r="BP152">
-        <v>64.51612903225806</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="153" spans="1:68">
@@ -34730,10 +34730,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO153">
-        <v>32.32044198895027</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BP153">
-        <v>94.35483870967741</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -34933,10 +34933,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BO154">
-        <v>38.67403314917127</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP154">
-        <v>112.9032258064516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -35139,10 +35139,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BO155">
-        <v>30.93922651933701</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BP155">
-        <v>90.32258064516128</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -35345,10 +35345,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO156">
-        <v>34.80662983425414</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BP156">
-        <v>101.6129032258064</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -35551,10 +35551,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BO157">
-        <v>45.3038674033149</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BP157">
-        <v>132.258064516129</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -35757,10 +35757,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BO158">
-        <v>35.35911602209944</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP158">
-        <v>103.2258064516129</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -35963,10 +35963,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO159">
-        <v>32.04419889502762</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP159">
-        <v>93.54838709677419</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -36166,10 +36166,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BO160">
-        <v>31.49171270718232</v>
+        <v>0</v>
       </c>
       <c r="BP160">
-        <v>91.93548387096774</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -36369,10 +36369,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BO161">
-        <v>27.34806629834254</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP161">
-        <v>79.83870967741935</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="162" spans="1:68">
@@ -36575,10 +36575,10 @@
         <v>13.37817638266069</v>
       </c>
       <c r="BO162">
-        <v>49.44751381215469</v>
+        <v>21.54696132596685</v>
       </c>
       <c r="BP162">
-        <v>144.3548387096774</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="163" spans="1:68">
@@ -36781,10 +36781,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BO163">
-        <v>45.3038674033149</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BP163">
-        <v>132.258064516129</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="164" spans="1:68">
@@ -36987,10 +36987,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BO164">
-        <v>33.14917127071823</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BP164">
-        <v>96.77419354838709</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="165" spans="1:68">
@@ -37193,10 +37193,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BO165">
-        <v>39.22651933701657</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP165">
-        <v>114.516129032258</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="166" spans="1:68">
@@ -37399,10 +37399,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BO166">
-        <v>29.83425414364641</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP166">
-        <v>87.09677419354838</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -37605,10 +37605,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO167">
-        <v>36.74033149171271</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BP167">
-        <v>107.258064516129</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -37811,10 +37811,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO168">
-        <v>36.74033149171271</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BP168">
-        <v>107.258064516129</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="169" spans="1:68">
@@ -38014,10 +38014,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BO169">
-        <v>27.90055248618784</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP169">
-        <v>81.45161290322579</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="170" spans="1:68">
@@ -38220,10 +38220,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BO170">
-        <v>31.49171270718232</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BP170">
-        <v>91.93548387096774</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="171" spans="1:68">
@@ -38426,10 +38426,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BO171">
-        <v>24.30939226519337</v>
+        <v>0</v>
       </c>
       <c r="BP171">
-        <v>70.96774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="172" spans="1:68">
@@ -38632,10 +38632,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO172">
-        <v>40.60773480662983</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BP172">
-        <v>118.5483870967742</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -38838,10 +38838,10 @@
         <v>5.455904334828101</v>
       </c>
       <c r="BO173">
-        <v>20.16574585635359</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP173">
-        <v>58.87096774193547</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="174" spans="1:68">
@@ -39041,10 +39041,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BO174">
-        <v>28.7292817679558</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP174">
-        <v>83.87096774193549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:68">
@@ -39247,10 +39247,10 @@
         <v>6.651718983557549</v>
       </c>
       <c r="BO175">
-        <v>24.58563535911602</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP175">
-        <v>71.7741935483871</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -39453,10 +39453,10 @@
         <v>18.31091180866965</v>
       </c>
       <c r="BO176">
-        <v>67.67955801104972</v>
+        <v>29.55801104972375</v>
       </c>
       <c r="BP176">
-        <v>197.5806451612903</v>
+        <v>37.90322580645162</v>
       </c>
     </row>
     <row r="177" spans="1:68">
@@ -39659,10 +39659,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BO177">
-        <v>40.33149171270718</v>
+        <v>15.74585635359116</v>
       </c>
       <c r="BP177">
-        <v>117.7419354838709</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -39865,10 +39865,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BO178">
-        <v>35.91160220994475</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP178">
-        <v>104.8387096774193</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -40065,10 +40065,10 @@
         <v>-18.08669656203288</v>
       </c>
       <c r="BO179">
-        <v>-66.85082872928176</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP179">
-        <v>-195.1612903225806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -40271,10 +40271,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BO180">
-        <v>45.02762430939226</v>
+        <v>17.95580110497237</v>
       </c>
       <c r="BP180">
-        <v>131.4516129032258</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -40477,10 +40477,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BO181">
-        <v>39.50276243093923</v>
+        <v>15.74585635359116</v>
       </c>
       <c r="BP181">
-        <v>115.3225806451613</v>
+        <v>20.96774193548387</v>
       </c>
     </row>
     <row r="182" spans="1:68">
@@ -40683,10 +40683,10 @@
         <v>12.33183856502242</v>
       </c>
       <c r="BO182">
-        <v>45.58011049723756</v>
+        <v>23.75690607734806</v>
       </c>
       <c r="BP182">
-        <v>133.0645161290323</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -40889,10 +40889,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BO183">
-        <v>33.97790055248619</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP183">
-        <v>99.19354838709677</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -41095,10 +41095,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO184">
-        <v>32.04419889502762</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP184">
-        <v>93.54838709677419</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="185" spans="1:68">
@@ -41301,10 +41301,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO185">
-        <v>40.60773480662983</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP185">
-        <v>118.5483870967742</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -41507,10 +41507,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BO186">
-        <v>30.11049723756906</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP186">
-        <v>87.90322580645162</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -41713,10 +41713,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO187">
-        <v>36.46408839779005</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BP187">
-        <v>106.4516129032258</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -41919,10 +41919,10 @@
         <v>14.94768310911808</v>
       </c>
       <c r="BO188">
-        <v>55.24861878453038</v>
+        <v>19.06077348066298</v>
       </c>
       <c r="BP188">
-        <v>161.2903225806452</v>
+        <v>26.61290322580645</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -42125,10 +42125,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BO189">
-        <v>40.33149171270718</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP189">
-        <v>117.7419354838709</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -42331,10 +42331,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BO190">
-        <v>26.79558011049724</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BP190">
-        <v>78.2258064516129</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -42537,10 +42537,10 @@
         <v>-1.121076233183856</v>
       </c>
       <c r="BO191">
-        <v>-4.143646408839778</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP191">
-        <v>-12.09677419354839</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -42743,10 +42743,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BO192">
-        <v>39.50276243093923</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BP192">
-        <v>115.3225806451613</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -42949,10 +42949,10 @@
         <v>13.22869955156951</v>
       </c>
       <c r="BO193">
-        <v>48.89502762430939</v>
+        <v>18.50828729281768</v>
       </c>
       <c r="BP193">
-        <v>142.7419354838709</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -43128,10 +43128,7 @@
         <v>0</v>
       </c>
       <c r="BO194">
-        <v>0</v>
-      </c>
-      <c r="BP194">
-        <v>0</v>
+        <v>-16.85082872928177</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -43334,10 +43331,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BO195">
-        <v>30.66298342541436</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP195">
-        <v>89.51612903225806</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -43537,10 +43534,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO196">
-        <v>34.80662983425414</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP196">
-        <v>101.6129032258064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -43743,10 +43740,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BO197">
-        <v>46.13259668508287</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP197">
-        <v>134.6774193548387</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -43946,10 +43943,10 @@
         <v>4.932735426008968</v>
       </c>
       <c r="BO198">
-        <v>18.23204419889503</v>
+        <v>0</v>
       </c>
       <c r="BP198">
-        <v>53.2258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:68">
@@ -44152,10 +44149,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BO199">
-        <v>25.13812154696132</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP199">
-        <v>73.38709677419354</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="200" spans="1:68">
@@ -44358,10 +44355,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BO200">
-        <v>40.88397790055249</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BP200">
-        <v>119.3548387096774</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="201" spans="1:68">
@@ -44558,10 +44555,10 @@
         <v>0.3736920777279522</v>
       </c>
       <c r="BO201">
-        <v>1.38121546961326</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP201">
-        <v>4.032258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="202" spans="1:68">
@@ -44764,10 +44761,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BO202">
-        <v>35.08287292817679</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BP202">
-        <v>102.4193548387097</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="203" spans="1:68">
@@ -44970,10 +44967,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BO203">
-        <v>47.79005524861878</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP203">
-        <v>139.5161290322581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:68">
@@ -45176,10 +45173,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BO204">
-        <v>34.25414364640883</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP204">
-        <v>100</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="205" spans="1:68">
@@ -45382,10 +45379,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BO205">
-        <v>31.49171270718232</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP205">
-        <v>91.93548387096774</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="206" spans="1:68">
@@ -45588,10 +45585,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BO206">
-        <v>36.1878453038674</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP206">
-        <v>105.6451612903226</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="207" spans="1:68">
@@ -45794,10 +45791,10 @@
         <v>14.87294469357249</v>
       </c>
       <c r="BO207">
-        <v>54.97237569060772</v>
+        <v>27.90055248618784</v>
       </c>
       <c r="BP207">
-        <v>160.4838709677419</v>
+        <v>41.93548387096774</v>
       </c>
     </row>
     <row r="208" spans="1:68">
@@ -46000,10 +45997,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO208">
-        <v>34.80662983425414</v>
+        <v>0</v>
       </c>
       <c r="BP208">
-        <v>101.6129032258064</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -46206,10 +46203,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BO209">
-        <v>34.25414364640883</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP209">
-        <v>100</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="210" spans="1:68">
@@ -46412,10 +46409,10 @@
         <v>5.007473841554559</v>
       </c>
       <c r="BO210">
-        <v>18.50828729281768</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP210">
-        <v>54.03225806451613</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="211" spans="1:68">
@@ -46618,10 +46615,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BO211">
-        <v>20.99447513812154</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP211">
-        <v>61.29032258064515</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="212" spans="1:68">
@@ -46824,10 +46821,10 @@
         <v>12.85500747384155</v>
       </c>
       <c r="BO212">
-        <v>47.51381215469613</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BP212">
-        <v>138.7096774193548</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="213" spans="1:68">
@@ -47030,10 +47027,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BO213">
-        <v>29.2817679558011</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP213">
-        <v>85.48387096774192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:68">
@@ -47236,10 +47233,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BO214">
-        <v>27.62430939226519</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP214">
-        <v>80.64516129032258</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="215" spans="1:68">
@@ -47439,10 +47436,10 @@
         <v>5.30642750373692</v>
       </c>
       <c r="BO215">
-        <v>19.61325966850828</v>
+        <v>0</v>
       </c>
       <c r="BP215">
-        <v>57.25806451612902</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="216" spans="1:68">
@@ -47645,10 +47642,10 @@
         <v>13.75186846038864</v>
       </c>
       <c r="BO216">
-        <v>50.82872928176795</v>
+        <v>23.48066298342541</v>
       </c>
       <c r="BP216">
-        <v>148.3870967741935</v>
+        <v>33.06451612903226</v>
       </c>
     </row>
     <row r="217" spans="1:68">
@@ -47848,10 +47845,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BO217">
-        <v>37.01657458563536</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP217">
-        <v>108.0645161290323</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="218" spans="1:68">
@@ -48054,10 +48051,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BO218">
-        <v>44.47513812154696</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BP218">
-        <v>129.8387096774194</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="219" spans="1:68">
@@ -48257,10 +48254,10 @@
         <v>5.082212257100148</v>
       </c>
       <c r="BO219">
-        <v>18.78453038674033</v>
+        <v>0</v>
       </c>
       <c r="BP219">
-        <v>54.83870967741935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:68">
@@ -48463,10 +48460,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BO220">
-        <v>42.26519337016575</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BP220">
-        <v>123.3870967741936</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="221" spans="1:68">
@@ -48666,10 +48663,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BO221">
-        <v>26.24309392265193</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP221">
-        <v>76.61290322580645</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="222" spans="1:68">
@@ -48872,10 +48869,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BO222">
-        <v>46.68508287292817</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BP222">
-        <v>136.2903225806452</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="223" spans="1:68">
@@ -49078,10 +49075,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BO223">
-        <v>40.88397790055249</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP223">
-        <v>119.3548387096774</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="224" spans="1:68">
@@ -49284,10 +49281,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BO224">
-        <v>45.02762430939226</v>
+        <v>16.29834254143647</v>
       </c>
       <c r="BP224">
-        <v>131.4516129032258</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="225" spans="1:68">
@@ -49487,10 +49484,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BO225">
-        <v>28.45303867403315</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP225">
-        <v>83.06451612903226</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="226" spans="1:68">
@@ -49690,10 +49687,10 @@
         <v>4.260089686098654</v>
       </c>
       <c r="BO226">
-        <v>15.74585635359116</v>
+        <v>0</v>
       </c>
       <c r="BP226">
-        <v>45.96774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:68">
@@ -49896,10 +49893,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BO227">
-        <v>30.11049723756906</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP227">
-        <v>87.90322580645162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:68">
@@ -50102,10 +50099,10 @@
         <v>5.530642750373691</v>
       </c>
       <c r="BO228">
-        <v>20.44198895027624</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP228">
-        <v>59.67741935483871</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="229" spans="1:68">
@@ -50308,10 +50305,10 @@
         <v>5.381165919282511</v>
       </c>
       <c r="BO229">
-        <v>19.88950276243094</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP229">
-        <v>58.06451612903226</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="230" spans="1:68">
@@ -50514,10 +50511,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO230">
-        <v>38.39779005524861</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BP230">
-        <v>112.0967741935484</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="231" spans="1:68">
@@ -50720,10 +50717,10 @@
         <v>4.932735426008968</v>
       </c>
       <c r="BO231">
-        <v>18.23204419889503</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP231">
-        <v>53.2258064516129</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="232" spans="1:68">
@@ -50926,10 +50923,10 @@
         <v>12.33183856502242</v>
       </c>
       <c r="BO232">
-        <v>45.58011049723756</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BP232">
-        <v>133.0645161290323</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="233" spans="1:68">
@@ -51132,10 +51129,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BO233">
-        <v>31.49171270718232</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP233">
-        <v>91.93548387096774</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="234" spans="1:68">
@@ -51338,10 +51335,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO234">
-        <v>32.32044198895027</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP234">
-        <v>94.35483870967741</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="235" spans="1:68">
@@ -51541,10 +51538,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BO235">
-        <v>24.30939226519337</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP235">
-        <v>70.96774193548387</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="236" spans="1:68">
@@ -51747,10 +51744,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO236">
-        <v>32.87292817679558</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP236">
-        <v>95.96774193548387</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="237" spans="1:68">
@@ -51953,10 +51950,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BO237">
-        <v>29.00552486187845</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP237">
-        <v>84.67741935483872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:68">
@@ -52159,10 +52156,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BO238">
-        <v>37.84530386740331</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BP238">
-        <v>110.4838709677419</v>
+        <v>23.38709677419355</v>
       </c>
     </row>
     <row r="239" spans="1:68">
@@ -52362,10 +52359,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BO239">
-        <v>44.47513812154696</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP239">
-        <v>129.8387096774194</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="240" spans="1:68">
@@ -52568,10 +52565,10 @@
         <v>5.979073243647234</v>
       </c>
       <c r="BO240">
-        <v>22.09944751381216</v>
+        <v>0</v>
       </c>
       <c r="BP240">
-        <v>64.51612903225806</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="241" spans="1:68">
@@ -52774,10 +52771,10 @@
         <v>3.43796711509716</v>
       </c>
       <c r="BO241">
-        <v>12.70718232044199</v>
+        <v>0</v>
       </c>
       <c r="BP241">
-        <v>37.09677419354838</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="242" spans="1:68">
@@ -52980,10 +52977,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BO242">
-        <v>38.95027624309392</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BP242">
-        <v>113.7096774193548</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="243" spans="1:68">
@@ -53186,10 +53183,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BO243">
-        <v>31.49171270718232</v>
+        <v>16.85082872928177</v>
       </c>
       <c r="BP243">
-        <v>91.93548387096774</v>
+        <v>23.38709677419355</v>
       </c>
     </row>
     <row r="244" spans="1:68">
@@ -53392,10 +53389,10 @@
         <v>20.254110612855</v>
       </c>
       <c r="BO244">
-        <v>74.86187845303867</v>
+        <v>42.26519337016575</v>
       </c>
       <c r="BP244">
-        <v>218.5483870967742</v>
+        <v>53.2258064516129</v>
       </c>
     </row>
     <row r="245" spans="1:68">
@@ -53598,10 +53595,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BO245">
-        <v>25.96685082872928</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP245">
-        <v>75.80645161290323</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="246" spans="1:68">
@@ -53804,10 +53801,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BO246">
-        <v>27.90055248618784</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP246">
-        <v>81.45161290322579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:68">
@@ -54010,10 +54007,10 @@
         <v>15.47085201793722</v>
       </c>
       <c r="BO247">
-        <v>57.18232044198894</v>
+        <v>20.44198895027624</v>
       </c>
       <c r="BP247">
-        <v>166.9354838709677</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="248" spans="1:68">
@@ -54216,10 +54213,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BO248">
-        <v>47.23756906077348</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BP248">
-        <v>137.9032258064516</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="249" spans="1:68">
@@ -54422,10 +54419,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BO249">
-        <v>26.79558011049724</v>
+        <v>0</v>
       </c>
       <c r="BP249">
-        <v>78.2258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:68">
@@ -54628,10 +54625,10 @@
         <v>0.1494768310911809</v>
       </c>
       <c r="BO250">
-        <v>0.5524861878453038</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP250">
-        <v>1.612903225806452</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="251" spans="1:68">
@@ -54834,10 +54831,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BO251">
-        <v>47.23756906077348</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP251">
-        <v>137.9032258064516</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="252" spans="1:68">
@@ -55040,10 +55037,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO252">
-        <v>32.87292817679558</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP252">
-        <v>95.96774193548387</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="253" spans="1:68">
@@ -55246,10 +55243,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BO253">
-        <v>42.54143646408839</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BP253">
-        <v>124.1935483870968</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="254" spans="1:68">
@@ -55452,10 +55449,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BO254">
-        <v>39.77900552486188</v>
+        <v>24.58563535911602</v>
       </c>
       <c r="BP254">
-        <v>116.1290322580645</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255" spans="1:68">
@@ -55655,10 +55652,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO255">
-        <v>38.12154696132596</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP255">
-        <v>111.2903225806452</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="256" spans="1:68">
@@ -55861,10 +55858,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO256">
-        <v>34.80662983425414</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BP256">
-        <v>101.6129032258064</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="257" spans="1:68">
@@ -56067,10 +56064,10 @@
         <v>5.381165919282511</v>
       </c>
       <c r="BO257">
-        <v>19.88950276243094</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP257">
-        <v>58.06451612903226</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="258" spans="1:68">
@@ -56273,10 +56270,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO258">
-        <v>36.46408839779005</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP258">
-        <v>106.4516129032258</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="259" spans="1:68">
@@ -56476,10 +56473,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO259">
-        <v>36.46408839779005</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP259">
-        <v>106.4516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="260" spans="1:68">
@@ -56682,10 +56679,10 @@
         <v>14.64872944693572</v>
       </c>
       <c r="BO260">
-        <v>54.14364640883977</v>
+        <v>17.12707182320442</v>
       </c>
       <c r="BP260">
-        <v>158.0645161290323</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="261" spans="1:68">
@@ -56888,10 +56885,10 @@
         <v>14.94768310911808</v>
       </c>
       <c r="BO261">
-        <v>55.24861878453038</v>
+        <v>18.23204419889503</v>
       </c>
       <c r="BP261">
-        <v>161.2903225806452</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="262" spans="1:68">
@@ -57091,10 +57088,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BO262">
-        <v>27.62430939226519</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP262">
-        <v>80.64516129032258</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="263" spans="1:68">
@@ -57297,10 +57294,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO263">
-        <v>32.59668508287293</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP263">
-        <v>95.16129032258065</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="264" spans="1:68">
@@ -57503,10 +57500,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BO264">
-        <v>30.93922651933701</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP264">
-        <v>90.32258064516128</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="265" spans="1:68">
@@ -57709,10 +57706,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO265">
-        <v>36.46408839779005</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BP265">
-        <v>106.4516129032258</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="266" spans="1:68">
@@ -57915,10 +57912,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BO266">
-        <v>25.13812154696132</v>
+        <v>-1.104972375690608</v>
       </c>
       <c r="BP266">
-        <v>73.38709677419354</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="267" spans="1:68">
@@ -58121,10 +58118,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BO267">
-        <v>35.08287292817679</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP267">
-        <v>102.4193548387097</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="268" spans="1:68">
@@ -58327,10 +58324,10 @@
         <v>13.37817638266069</v>
       </c>
       <c r="BO268">
-        <v>49.44751381215469</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BP268">
-        <v>144.3548387096774</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="269" spans="1:68">
@@ -58530,10 +58527,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BO269">
-        <v>37.29281767955801</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP269">
-        <v>108.8709677419355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:68">
@@ -58736,10 +58733,10 @@
         <v>14.12556053811659</v>
       </c>
       <c r="BO270">
-        <v>52.20994475138121</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP270">
-        <v>152.4193548387097</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="271" spans="1:68">
@@ -58939,10 +58936,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BO271">
-        <v>42.81767955801104</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BP271">
-        <v>125</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="272" spans="1:68">
@@ -59145,10 +59142,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BO272">
-        <v>47.79005524861878</v>
+        <v>27.90055248618784</v>
       </c>
       <c r="BP272">
-        <v>139.5161290322581</v>
+        <v>32.25806451612903</v>
       </c>
     </row>
     <row r="273" spans="1:68">
@@ -59351,10 +59348,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BO273">
-        <v>44.75138121546961</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP273">
-        <v>130.6451612903226</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="274" spans="1:68">
@@ -59557,10 +59554,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BO274">
-        <v>30.38674033149171</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP274">
-        <v>88.70967741935483</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="275" spans="1:68">
@@ -59757,10 +59754,10 @@
         <v>-9.267563527653214</v>
       </c>
       <c r="BO275">
-        <v>-34.25414364640883</v>
+        <v>0</v>
       </c>
       <c r="BP275">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:68">
@@ -59963,10 +59960,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BO276">
-        <v>33.14917127071823</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP276">
-        <v>96.77419354838709</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="277" spans="1:68">
@@ -60169,10 +60166,10 @@
         <v>11.95814648729447</v>
       </c>
       <c r="BO277">
-        <v>44.19889502762431</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BP277">
-        <v>129.0322580645161</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="278" spans="1:68">
@@ -60372,10 +60369,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BO278">
-        <v>19.33701657458563</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP278">
-        <v>56.4516129032258</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="279" spans="1:68">
@@ -60575,10 +60572,10 @@
         <v>0.1494768310911809</v>
       </c>
       <c r="BO279">
-        <v>0.5524861878453038</v>
+        <v>-1.104972375690608</v>
       </c>
       <c r="BP279">
-        <v>1.612903225806452</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="280" spans="1:68">
@@ -60778,10 +60775,10 @@
         <v>14.64872944693572</v>
       </c>
       <c r="BO280">
-        <v>54.14364640883977</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP280">
-        <v>158.0645161290323</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="281" spans="1:68">
@@ -60984,10 +60981,10 @@
         <v>19.28251121076233</v>
       </c>
       <c r="BO281">
-        <v>71.27071823204419</v>
+        <v>35.63535911602209</v>
       </c>
       <c r="BP281">
-        <v>208.0645161290323</v>
+        <v>37.09677419354838</v>
       </c>
     </row>
     <row r="282" spans="1:68">
@@ -61190,10 +61187,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BO282">
-        <v>42.54143646408839</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP282">
-        <v>124.1935483870968</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="283" spans="1:68">
@@ -61396,10 +61393,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BO283">
-        <v>34.53038674033149</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP283">
-        <v>100.8064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="284" spans="1:68">
@@ -61599,10 +61596,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO284">
-        <v>32.59668508287293</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP284">
-        <v>95.16129032258065</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="285" spans="1:68">
@@ -61805,10 +61802,10 @@
         <v>11.13602391629297</v>
       </c>
       <c r="BO285">
-        <v>41.16022099447514</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BP285">
-        <v>120.1612903225807</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="286" spans="1:68">
@@ -62011,10 +62008,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BO286">
-        <v>38.95027624309392</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP286">
-        <v>113.7096774193548</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="287" spans="1:68">
@@ -62214,10 +62211,10 @@
         <v>14.49925261584454</v>
       </c>
       <c r="BO287">
-        <v>53.59116022099447</v>
+        <v>27.34806629834254</v>
       </c>
       <c r="BP287">
-        <v>156.4516129032258</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="288" spans="1:68">
@@ -62420,10 +62417,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BO288">
-        <v>37.29281767955801</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BP288">
-        <v>108.8709677419355</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="289" spans="1:68">
@@ -62626,10 +62623,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO289">
-        <v>34.80662983425414</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP289">
-        <v>101.6129032258064</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="290" spans="1:68">
@@ -62832,10 +62829,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BO290">
-        <v>30.38674033149171</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BP290">
-        <v>88.70967741935483</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="291" spans="1:68">
@@ -63038,10 +63035,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO291">
-        <v>37.56906077348066</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BP291">
-        <v>109.6774193548387</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="292" spans="1:68">
@@ -63244,10 +63241,10 @@
         <v>13.75186846038864</v>
       </c>
       <c r="BO292">
-        <v>50.82872928176795</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP292">
-        <v>148.3870967741935</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="293" spans="1:68">
@@ -63450,10 +63447,10 @@
         <v>13.07922272047833</v>
       </c>
       <c r="BO293">
-        <v>48.34254143646409</v>
+        <v>22.3756906077348</v>
       </c>
       <c r="BP293">
-        <v>141.1290322580645</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="294" spans="1:68">
@@ -63656,10 +63653,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO294">
-        <v>36.74033149171271</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP294">
-        <v>107.258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:68">
@@ -63862,10 +63859,10 @@
         <v>22.86995515695067</v>
       </c>
       <c r="BO295">
-        <v>84.53038674033149</v>
+        <v>51.38121546961326</v>
       </c>
       <c r="BP295">
-        <v>246.7741935483871</v>
+        <v>75</v>
       </c>
     </row>
     <row r="296" spans="1:68">
@@ -64068,10 +64065,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BO296">
-        <v>27.90055248618784</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP296">
-        <v>81.45161290322579</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="297" spans="1:68">
@@ -64274,10 +64271,10 @@
         <v>12.55605381165919</v>
       </c>
       <c r="BO297">
-        <v>46.40883977900553</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BP297">
-        <v>135.483870967742</v>
+        <v>18.54838709677419</v>
       </c>
     </row>
     <row r="298" spans="1:68">
@@ -64480,10 +64477,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BO298">
-        <v>46.13259668508287</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP298">
-        <v>134.6774193548387</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="299" spans="1:68">
@@ -64683,10 +64680,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BO299">
-        <v>35.63535911602209</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP299">
-        <v>104.0322580645161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:68">
@@ -64886,10 +64883,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BO300">
-        <v>28.7292817679558</v>
+        <v>-2.209944751381215</v>
       </c>
       <c r="BP300">
-        <v>83.87096774193549</v>
+        <v>-20.96774193548387</v>
       </c>
     </row>
     <row r="301" spans="1:68">
@@ -65092,10 +65089,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BO301">
-        <v>37.29281767955801</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BP301">
-        <v>108.8709677419355</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="302" spans="1:68">
@@ -65298,10 +65295,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BO302">
-        <v>42.26519337016575</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BP302">
-        <v>123.3870967741936</v>
+        <v>39.51612903225807</v>
       </c>
     </row>
     <row r="303" spans="1:68">
@@ -65504,10 +65501,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BO303">
-        <v>29.00552486187845</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP303">
-        <v>84.67741935483872</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="304" spans="1:68">
@@ -65710,10 +65707,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BO304">
-        <v>27.62430939226519</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP304">
-        <v>80.64516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:68">
@@ -65916,10 +65913,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BO305">
-        <v>40.33149171270718</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP305">
-        <v>117.7419354838709</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="306" spans="1:68">
@@ -66122,10 +66119,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BO306">
-        <v>20.99447513812154</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP306">
-        <v>61.29032258064515</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="307" spans="1:68">
@@ -66328,10 +66325,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BO307">
-        <v>24.30939226519337</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BP307">
-        <v>70.96774193548387</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="308" spans="1:68">
@@ -66534,10 +66531,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BO308">
-        <v>26.79558011049724</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP308">
-        <v>78.2258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:68">
@@ -66740,10 +66737,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO309">
-        <v>32.87292817679558</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP309">
-        <v>95.96774193548387</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="310" spans="1:68">
@@ -66940,10 +66937,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO310">
-        <v>32.32044198895027</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP310">
-        <v>94.35483870967741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:68">
@@ -67146,10 +67143,10 @@
         <v>14.050822122571</v>
       </c>
       <c r="BO311">
-        <v>51.93370165745856</v>
+        <v>18.50828729281768</v>
       </c>
       <c r="BP311">
-        <v>151.6129032258065</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="312" spans="1:68">
@@ -67352,10 +67349,10 @@
         <v>17.63826606875934</v>
       </c>
       <c r="BO312">
-        <v>65.19337016574586</v>
+        <v>38.39779005524861</v>
       </c>
       <c r="BP312">
-        <v>190.3225806451613</v>
+        <v>61.29032258064515</v>
       </c>
     </row>
     <row r="313" spans="1:68">
@@ -67558,10 +67555,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO313">
-        <v>36.46408839779005</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BP313">
-        <v>106.4516129032258</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="314" spans="1:68">
@@ -67761,10 +67758,10 @@
         <v>4.932735426008968</v>
       </c>
       <c r="BO314">
-        <v>18.23204419889503</v>
+        <v>-1.38121546961326</v>
       </c>
       <c r="BP314">
-        <v>53.2258064516129</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="315" spans="1:68">
@@ -67967,10 +67964,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BO315">
-        <v>33.42541436464088</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BP315">
-        <v>97.58064516129032</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="316" spans="1:68">
@@ -68173,10 +68170,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BO316">
-        <v>40.88397790055249</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP316">
-        <v>119.3548387096774</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="317" spans="1:68">
@@ -68379,10 +68376,10 @@
         <v>3.886397608370702</v>
       </c>
       <c r="BO317">
-        <v>14.3646408839779</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP317">
-        <v>41.93548387096774</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="318" spans="1:68">
@@ -68585,10 +68582,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BO318">
-        <v>33.14917127071823</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BP318">
-        <v>96.77419354838709</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="319" spans="1:68">
@@ -68791,10 +68788,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BO319">
-        <v>40.33149171270718</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP319">
-        <v>117.7419354838709</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="320" spans="1:68">
@@ -68997,10 +68994,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BO320">
-        <v>35.91160220994475</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP320">
-        <v>104.8387096774193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:68">
@@ -69203,10 +69200,10 @@
         <v>14.7982062780269</v>
       </c>
       <c r="BO321">
-        <v>54.69613259668508</v>
+        <v>22.65193370165745</v>
       </c>
       <c r="BP321">
-        <v>159.6774193548387</v>
+        <v>28.2258064516129</v>
       </c>
     </row>
     <row r="322" spans="1:68">
@@ -69409,10 +69406,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BO322">
-        <v>45.3038674033149</v>
+        <v>21.54696132596685</v>
       </c>
       <c r="BP322">
-        <v>132.258064516129</v>
+        <v>34.6774193548387</v>
       </c>
     </row>
     <row r="323" spans="1:68">
@@ -69612,10 +69609,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BO323">
-        <v>43.64640883977901</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP323">
-        <v>127.4193548387097</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="324" spans="1:68">
@@ -69818,10 +69815,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BO324">
-        <v>28.7292817679558</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BP324">
-        <v>83.87096774193549</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="325" spans="1:68">
@@ -70024,10 +70021,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BO325">
-        <v>45.85635359116022</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BP325">
-        <v>133.8709677419355</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="326" spans="1:68">
@@ -70230,10 +70227,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BO326">
-        <v>35.91160220994475</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BP326">
-        <v>104.8387096774193</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="327" spans="1:68">
@@ -70436,10 +70433,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO327">
-        <v>38.12154696132596</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BP327">
-        <v>111.2903225806452</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="328" spans="1:68">
@@ -70642,10 +70639,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BO328">
-        <v>26.24309392265193</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP328">
-        <v>76.61290322580645</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="329" spans="1:68">
@@ -70848,10 +70845,10 @@
         <v>3.288490284005979</v>
       </c>
       <c r="BO329">
-        <v>12.15469613259669</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BP329">
-        <v>35.48387096774194</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="330" spans="1:68">
@@ -71051,10 +71048,10 @@
         <v>1.79372197309417</v>
       </c>
       <c r="BO330">
-        <v>6.629834254143646</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP330">
-        <v>19.35483870967742</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="331" spans="1:68">
@@ -71254,10 +71251,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BO331">
-        <v>46.13259668508287</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BP331">
-        <v>134.6774193548387</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="332" spans="1:68">
@@ -71457,10 +71454,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BO332">
-        <v>36.1878453038674</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP332">
-        <v>105.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:68">
@@ -71663,10 +71660,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BO333">
-        <v>29.2817679558011</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP333">
-        <v>85.48387096774192</v>
+        <v>-8.064516129032258</v>
       </c>
     </row>
     <row r="334" spans="1:68">
@@ -71869,10 +71866,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BO334">
-        <v>21.54696132596685</v>
+        <v>0</v>
       </c>
       <c r="BP334">
-        <v>62.90322580645162</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="335" spans="1:68">
@@ -72072,10 +72069,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BO335">
-        <v>33.42541436464088</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP335">
-        <v>97.58064516129032</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="336" spans="1:68">
@@ -72278,10 +72275,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BO336">
-        <v>24.86187845303867</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP336">
-        <v>72.58064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="337" spans="1:68">
@@ -72478,10 +72475,10 @@
         <v>-6.87593423019432</v>
       </c>
       <c r="BO337">
-        <v>-25.41436464088397</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP337">
-        <v>-74.19354838709677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:68">
@@ -72684,10 +72681,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BO338">
-        <v>44.75138121546961</v>
+        <v>24.86187845303867</v>
       </c>
       <c r="BP338">
-        <v>130.6451612903226</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="339" spans="1:68">
@@ -72890,10 +72887,10 @@
         <v>12.33183856502242</v>
       </c>
       <c r="BO339">
-        <v>45.58011049723756</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BP339">
-        <v>133.0645161290323</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="340" spans="1:68">
@@ -73096,10 +73093,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BO340">
-        <v>43.37016574585635</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP340">
-        <v>126.6129032258064</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="341" spans="1:68">
@@ -73302,10 +73299,10 @@
         <v>2.242152466367713</v>
       </c>
       <c r="BO341">
-        <v>8.287292817679557</v>
+        <v>0</v>
       </c>
       <c r="BP341">
-        <v>24.19354838709677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:68">
@@ -73508,10 +73505,10 @@
         <v>1.943198804185351</v>
       </c>
       <c r="BO342">
-        <v>7.18232044198895</v>
+        <v>0</v>
       </c>
       <c r="BP342">
-        <v>20.96774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:68">
@@ -73714,10 +73711,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BO343">
-        <v>47.79005524861878</v>
+        <v>26.51933701657459</v>
       </c>
       <c r="BP343">
-        <v>139.5161290322581</v>
+        <v>26.61290322580645</v>
       </c>
     </row>
     <row r="344" spans="1:68">
@@ -73920,10 +73917,10 @@
         <v>18.38565022421525</v>
       </c>
       <c r="BO344">
-        <v>67.95580110497238</v>
+        <v>35.08287292817679</v>
       </c>
       <c r="BP344">
-        <v>198.3870967741935</v>
+        <v>38.70967741935484</v>
       </c>
     </row>
     <row r="345" spans="1:68">
@@ -74126,10 +74123,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BO345">
-        <v>45.3038674033149</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BP345">
-        <v>132.258064516129</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="346" spans="1:68">
@@ -74332,10 +74329,10 @@
         <v>13.3034379671151</v>
       </c>
       <c r="BO346">
-        <v>49.17127071823204</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BP346">
-        <v>143.5483870967742</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="347" spans="1:68">
@@ -74538,10 +74535,10 @@
         <v>6.278026905829597</v>
       </c>
       <c r="BO347">
-        <v>23.20441988950276</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP347">
-        <v>67.74193548387098</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="348" spans="1:68">
@@ -74744,10 +74741,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BO348">
-        <v>41.98895027624309</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP348">
-        <v>122.5806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:68">
@@ -74950,10 +74947,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BO349">
-        <v>47.23756906077348</v>
+        <v>20.44198895027624</v>
       </c>
       <c r="BP349">
-        <v>137.9032258064516</v>
+        <v>23.38709677419355</v>
       </c>
     </row>
     <row r="350" spans="1:68">
@@ -75156,10 +75153,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BO350">
-        <v>31.49171270718232</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP350">
-        <v>91.93548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="351" spans="1:68">
@@ -75359,10 +75356,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO351">
-        <v>32.59668508287293</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP351">
-        <v>95.16129032258065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:68">
@@ -75565,10 +75562,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BO352">
-        <v>46.13259668508287</v>
+        <v>20.16574585635359</v>
       </c>
       <c r="BP352">
-        <v>134.6774193548387</v>
+        <v>25</v>
       </c>
     </row>
     <row r="353" spans="1:68">
@@ -75771,10 +75768,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO353">
-        <v>36.46408839779005</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BP353">
-        <v>106.4516129032258</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="354" spans="1:68">
@@ -75974,10 +75971,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BO354">
-        <v>21.54696132596685</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP354">
-        <v>62.90322580645162</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="355" spans="1:68">
@@ -76180,10 +76177,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO355">
-        <v>41.71270718232044</v>
+        <v>24.30939226519337</v>
       </c>
       <c r="BP355">
-        <v>121.7741935483871</v>
+        <v>31.45161290322581</v>
       </c>
     </row>
     <row r="356" spans="1:68">
@@ -76386,10 +76383,10 @@
         <v>15.17189835575486</v>
       </c>
       <c r="BO356">
-        <v>56.07734806629834</v>
+        <v>19.61325966850828</v>
       </c>
       <c r="BP356">
-        <v>163.7096774193548</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="357" spans="1:68">
@@ -76589,10 +76586,10 @@
         <v>6.203288490284006</v>
       </c>
       <c r="BO357">
-        <v>22.92817679558011</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP357">
-        <v>66.93548387096774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:68">
@@ -76795,10 +76792,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BO358">
-        <v>40.05524861878452</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BP358">
-        <v>116.9354838709677</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="359" spans="1:68">
@@ -77001,10 +76998,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BO359">
-        <v>25.96685082872928</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP359">
-        <v>75.80645161290323</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="360" spans="1:68">
@@ -77207,10 +77204,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BO360">
-        <v>39.77900552486188</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BP360">
-        <v>116.1290322580645</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="361" spans="1:68">
@@ -77413,10 +77410,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BO361">
-        <v>30.11049723756906</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP361">
-        <v>87.90322580645162</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="362" spans="1:68">
@@ -77619,10 +77616,10 @@
         <v>4.110612855007473</v>
       </c>
       <c r="BO362">
-        <v>15.19337016574586</v>
+        <v>-1.933701657458563</v>
       </c>
       <c r="BP362">
-        <v>44.35483870967742</v>
+        <v>-9.67741935483871</v>
       </c>
     </row>
     <row r="363" spans="1:68">
@@ -77822,10 +77819,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO363">
-        <v>32.87292817679558</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP363">
-        <v>95.96774193548387</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="364" spans="1:68">
@@ -78028,10 +78025,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BO364">
-        <v>39.77900552486188</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BP364">
-        <v>116.1290322580645</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="365" spans="1:68">
@@ -78234,10 +78231,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BO365">
-        <v>40.05524861878452</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BP365">
-        <v>116.9354838709677</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="366" spans="1:68">
@@ -78440,10 +78437,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BO366">
-        <v>47.79005524861878</v>
+        <v>28.7292817679558</v>
       </c>
       <c r="BP366">
-        <v>139.5161290322581</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="367" spans="1:68">
@@ -78646,10 +78643,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BO367">
-        <v>47.79005524861878</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP367">
-        <v>139.5161290322581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:68">
@@ -78852,10 +78849,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BO368">
-        <v>35.35911602209944</v>
+        <v>16.85082872928177</v>
       </c>
       <c r="BP368">
-        <v>103.2258064516129</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="369" spans="1:68">
@@ -79055,10 +79052,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO369">
-        <v>37.56906077348066</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP369">
-        <v>109.6774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:68">
@@ -79261,10 +79258,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BO370">
-        <v>43.37016574585635</v>
+        <v>18.23204419889503</v>
       </c>
       <c r="BP370">
-        <v>126.6129032258064</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="371" spans="1:68">
@@ -79467,10 +79464,10 @@
         <v>3.43796711509716</v>
       </c>
       <c r="BO371">
-        <v>12.70718232044199</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP371">
-        <v>37.09677419354838</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="372" spans="1:68">
@@ -79673,10 +79670,10 @@
         <v>14.12556053811659</v>
       </c>
       <c r="BO372">
-        <v>52.20994475138121</v>
+        <v>20.16574585635359</v>
       </c>
       <c r="BP372">
-        <v>152.4193548387097</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="373" spans="1:68">
@@ -79879,10 +79876,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BO373">
-        <v>34.25414364640883</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP373">
-        <v>100</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="374" spans="1:68">
@@ -80085,10 +80082,10 @@
         <v>5.007473841554559</v>
       </c>
       <c r="BO374">
-        <v>18.50828729281768</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BP374">
-        <v>54.03225806451613</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="375" spans="1:68">
@@ -80291,10 +80288,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BO375">
-        <v>28.17679558011049</v>
+        <v>0</v>
       </c>
       <c r="BP375">
-        <v>82.25806451612902</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="376" spans="1:68">
@@ -80494,10 +80491,10 @@
         <v>4.035874439461884</v>
       </c>
       <c r="BO376">
-        <v>14.91712707182321</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP376">
-        <v>43.54838709677419</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="377" spans="1:68">
@@ -80700,10 +80697,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO377">
-        <v>38.12154696132596</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP377">
-        <v>111.2903225806452</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="378" spans="1:68">
@@ -80906,10 +80903,10 @@
         <v>16.74140508221225</v>
       </c>
       <c r="BO378">
-        <v>61.87845303867402</v>
+        <v>30.93922651933701</v>
       </c>
       <c r="BP378">
-        <v>180.6451612903226</v>
+        <v>28.2258064516129</v>
       </c>
     </row>
     <row r="379" spans="1:68">
@@ -81112,10 +81109,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BO379">
-        <v>45.02762430939226</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BP379">
-        <v>131.4516129032258</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="380" spans="1:68">
@@ -81318,10 +81315,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BO380">
-        <v>42.81767955801104</v>
+        <v>16.85082872928177</v>
       </c>
       <c r="BP380">
-        <v>125</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="381" spans="1:68">
@@ -81524,10 +81521,10 @@
         <v>12.33183856502242</v>
       </c>
       <c r="BO381">
-        <v>45.58011049723756</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BP381">
-        <v>133.0645161290323</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="382" spans="1:68">
@@ -81727,10 +81724,10 @@
         <v>12.85500747384155</v>
       </c>
       <c r="BO382">
-        <v>47.51381215469613</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP382">
-        <v>138.7096774193548</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="383" spans="1:68">
@@ -81933,10 +81930,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BO383">
-        <v>47.23756906077348</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BP383">
-        <v>137.9032258064516</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="384" spans="1:68">
@@ -82139,10 +82136,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BO384">
-        <v>33.14917127071823</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP384">
-        <v>96.77419354838709</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="385" spans="1:68">
@@ -82342,10 +82339,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BO385">
-        <v>21.54696132596685</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP385">
-        <v>62.90322580645162</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="386" spans="1:68">
@@ -82548,10 +82545,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BO386">
-        <v>43.0939226519337</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BP386">
-        <v>125.8064516129032</v>
+        <v>18.54838709677419</v>
       </c>
     </row>
     <row r="387" spans="1:68">
@@ -82754,10 +82751,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BO387">
-        <v>42.54143646408839</v>
+        <v>17.12707182320442</v>
       </c>
       <c r="BP387">
-        <v>124.1935483870968</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="388" spans="1:68">
@@ -82957,10 +82954,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO388">
-        <v>37.56906077348066</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP388">
-        <v>109.6774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:68">
@@ -83160,10 +83157,10 @@
         <v>4.633781763826607</v>
       </c>
       <c r="BO389">
-        <v>17.12707182320442</v>
+        <v>0</v>
       </c>
       <c r="BP389">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:68">
@@ -83366,10 +83363,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BO390">
-        <v>37.01657458563536</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BP390">
-        <v>108.0645161290323</v>
+        <v>-11.29032258064516</v>
       </c>
     </row>
     <row r="391" spans="1:68">
@@ -83572,10 +83569,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO391">
-        <v>38.39779005524861</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP391">
-        <v>112.0967741935484</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="392" spans="1:68">
@@ -83778,10 +83775,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BO392">
-        <v>25.13812154696132</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP392">
-        <v>73.38709677419354</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="393" spans="1:68">
@@ -83984,10 +83981,10 @@
         <v>4.857997010463378</v>
       </c>
       <c r="BO393">
-        <v>17.95580110497237</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP393">
-        <v>52.41935483870967</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="394" spans="1:68">
@@ -84190,10 +84187,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BO394">
-        <v>33.14917127071823</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP394">
-        <v>96.77419354838709</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="395" spans="1:68">
@@ -84396,10 +84393,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO395">
-        <v>37.56906077348066</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BP395">
-        <v>109.6774193548387</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="396" spans="1:68">
@@ -84602,10 +84599,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO396">
-        <v>40.60773480662983</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP396">
-        <v>118.5483870967742</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="397" spans="1:68">
@@ -84808,10 +84805,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BO397">
-        <v>30.66298342541436</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP397">
-        <v>89.51612903225806</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="398" spans="1:68">
@@ -85014,10 +85011,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BO398">
-        <v>43.64640883977901</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP398">
-        <v>127.4193548387097</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="399" spans="1:68">
@@ -85220,10 +85217,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BO399">
-        <v>40.33149171270718</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP399">
-        <v>117.7419354838709</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="400" spans="1:68">
@@ -85426,10 +85423,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BO400">
-        <v>30.66298342541436</v>
+        <v>0</v>
       </c>
       <c r="BP400">
-        <v>89.51612903225806</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="401" spans="1:68">
@@ -85629,10 +85626,10 @@
         <v>-1.270553064275037</v>
       </c>
       <c r="BO401">
-        <v>-4.696132596685083</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP401">
-        <v>-13.70967741935484</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="402" spans="1:68">
@@ -85835,10 +85832,10 @@
         <v>11.95814648729447</v>
       </c>
       <c r="BO402">
-        <v>44.19889502762431</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BP402">
-        <v>129.0322580645161</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="403" spans="1:68">
@@ -86041,10 +86038,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BO403">
-        <v>50</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BP403">
-        <v>145.9677419354839</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="404" spans="1:68">
@@ -86247,10 +86244,10 @@
         <v>6.87593423019432</v>
       </c>
       <c r="BO404">
-        <v>25.41436464088397</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP404">
-        <v>74.19354838709677</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="405" spans="1:68">
@@ -86453,10 +86450,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BO405">
-        <v>23.48066298342541</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP405">
-        <v>68.54838709677419</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="406" spans="1:68">
@@ -86659,10 +86656,10 @@
         <v>0.7473841554559043</v>
       </c>
       <c r="BO406">
-        <v>2.762430939226519</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP406">
-        <v>8.064516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="407" spans="1:68">
@@ -86865,10 +86862,10 @@
         <v>13.3034379671151</v>
       </c>
       <c r="BO407">
-        <v>49.17127071823204</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BP407">
-        <v>143.5483870967742</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="408" spans="1:68">
@@ -87068,10 +87065,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BO408">
-        <v>36.1878453038674</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BP408">
-        <v>105.6451612903226</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="409" spans="1:68">
@@ -87271,10 +87268,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BO409">
-        <v>39.77900552486188</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BP409">
-        <v>116.1290322580645</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="410" spans="1:68">
@@ -87477,10 +87474,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO410">
-        <v>36.74033149171271</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP410">
-        <v>107.258064516129</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="411" spans="1:68">
@@ -87683,10 +87680,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BO411">
-        <v>50</v>
+        <v>25.69060773480663</v>
       </c>
       <c r="BP411">
-        <v>145.9677419354839</v>
+        <v>23.38709677419355</v>
       </c>
     </row>
     <row r="412" spans="1:68">
@@ -87889,10 +87886,10 @@
         <v>5.979073243647234</v>
       </c>
       <c r="BO412">
-        <v>22.09944751381216</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP412">
-        <v>64.51612903225806</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="413" spans="1:68">
@@ -88095,10 +88092,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO413">
-        <v>37.56906077348066</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BP413">
-        <v>109.6774193548387</v>
+        <v>20.96774193548387</v>
       </c>
     </row>
     <row r="414" spans="1:68">
@@ -88298,10 +88295,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BO414">
-        <v>44.75138121546961</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP414">
-        <v>130.6451612903226</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="415" spans="1:68">
@@ -88504,10 +88501,10 @@
         <v>17.48878923766816</v>
       </c>
       <c r="BO415">
-        <v>64.64088397790054</v>
+        <v>29.55801104972375</v>
       </c>
       <c r="BP415">
-        <v>188.7096774193548</v>
+        <v>45.96774193548387</v>
       </c>
     </row>
     <row r="416" spans="1:68">
@@ -88710,10 +88707,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BO416">
-        <v>47.79005524861878</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BP416">
-        <v>139.5161290322581</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="417" spans="1:68">
@@ -88913,10 +88910,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BO417">
-        <v>20.99447513812154</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP417">
-        <v>61.29032258064515</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="418" spans="1:68">
@@ -89119,10 +89116,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BO418">
-        <v>41.43646408839778</v>
+        <v>16.85082872928177</v>
       </c>
       <c r="BP418">
-        <v>120.9677419354839</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="419" spans="1:68">
@@ -89325,10 +89322,10 @@
         <v>6.427503736920777</v>
       </c>
       <c r="BO419">
-        <v>23.75690607734806</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP419">
-        <v>69.35483870967741</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="420" spans="1:68">
@@ -89528,10 +89525,10 @@
         <v>3.213751868460388</v>
       </c>
       <c r="BO420">
-        <v>11.87845303867403</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP420">
-        <v>34.6774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="421" spans="1:68">
@@ -89731,10 +89728,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BO421">
-        <v>43.37016574585635</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BP421">
-        <v>126.6129032258064</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="422" spans="1:68">
@@ -89937,10 +89934,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BO422">
-        <v>43.0939226519337</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BP422">
-        <v>125.8064516129032</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="423" spans="1:68">
@@ -90143,10 +90140,10 @@
         <v>13.22869955156951</v>
       </c>
       <c r="BO423">
-        <v>48.89502762430939</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BP423">
-        <v>142.7419354838709</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="424" spans="1:68">
@@ -90349,10 +90346,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO424">
-        <v>37.56906077348066</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP424">
-        <v>109.6774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="425" spans="1:68">
@@ -90555,10 +90552,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO425">
-        <v>32.59668508287293</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BP425">
-        <v>95.16129032258065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:68">
@@ -90761,10 +90758,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO426">
-        <v>32.04419889502762</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP426">
-        <v>93.54838709677419</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="427" spans="1:68">
@@ -90967,10 +90964,10 @@
         <v>13.37817638266069</v>
       </c>
       <c r="BO427">
-        <v>49.44751381215469</v>
+        <v>20.99447513812154</v>
       </c>
       <c r="BP427">
-        <v>144.3548387096774</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="428" spans="1:68">
@@ -91167,10 +91164,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BO428">
-        <v>44.47513812154696</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP428">
-        <v>129.8387096774194</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="429" spans="1:68">
@@ -91373,10 +91370,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO429">
-        <v>38.12154696132596</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BP429">
-        <v>111.2903225806452</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="430" spans="1:68">
@@ -91576,10 +91573,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BO430">
-        <v>43.0939226519337</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BP430">
-        <v>125.8064516129032</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="431" spans="1:68">
@@ -91782,10 +91779,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO431">
-        <v>33.70165745856353</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP431">
-        <v>98.38709677419354</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="432" spans="1:68">
@@ -91988,10 +91985,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BO432">
-        <v>43.0939226519337</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BP432">
-        <v>125.8064516129032</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="433" spans="1:68">
@@ -92191,10 +92188,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BO433">
-        <v>38.67403314917127</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BP433">
-        <v>112.9032258064516</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="434" spans="1:68">
@@ -92397,10 +92394,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BO434">
-        <v>33.97790055248619</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP434">
-        <v>99.19354838709677</v>
+        <v>-8.064516129032258</v>
       </c>
     </row>
     <row r="435" spans="1:68">
@@ -92603,10 +92600,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO435">
-        <v>33.70165745856353</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP435">
-        <v>98.38709677419354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:68">
@@ -92803,10 +92800,10 @@
         <v>-3.736920777279521</v>
       </c>
       <c r="BO436">
-        <v>-13.81215469613259</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP436">
-        <v>-40.32258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="437" spans="1:68">
@@ -93009,10 +93006,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BO437">
-        <v>28.17679558011049</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP437">
-        <v>82.25806451612902</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="438" spans="1:68">
@@ -93215,10 +93212,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BO438">
-        <v>37.01657458563536</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP438">
-        <v>108.0645161290323</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="439" spans="1:68">
@@ -93421,10 +93418,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO439">
-        <v>38.39779005524861</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP439">
-        <v>112.0967741935484</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="440" spans="1:68">
@@ -93624,10 +93621,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO440">
-        <v>32.32044198895027</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP440">
-        <v>94.35483870967741</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/2000/Master_2000.xlsx
+++ b/Resources/2000/Master_2000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="479">
   <si>
     <t>PID</t>
   </si>
@@ -211,16 +211,10 @@
     <t>TmRK</t>
   </si>
   <si>
-    <t>BPercentile_x</t>
-  </si>
-  <si>
-    <t>APercentile_x</t>
-  </si>
-  <si>
-    <t>BPercentile_y</t>
-  </si>
-  <si>
-    <t>APercentile_y</t>
+    <t>BPercentile</t>
+  </si>
+  <si>
+    <t>APercentile</t>
   </si>
   <si>
     <t>alexaco01</t>
@@ -1814,13 +1808,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR196"/>
+  <dimension ref="A1:BP196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:68">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2022,31 +2016,25 @@
       <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E2">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G2">
         <v>1980000</v>
@@ -2229,36 +2217,30 @@
         <v>0</v>
       </c>
       <c r="BO2">
-        <v>260.2</v>
+        <v>32.30769230769231</v>
       </c>
       <c r="BP2">
-        <v>334.6</v>
-      </c>
-      <c r="BQ2">
-        <v>32.30769230769231</v>
-      </c>
-      <c r="BR2">
         <v>17.02564102564103</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:68">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E3">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G3">
         <v>301875</v>
@@ -2441,36 +2423,30 @@
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>294.4</v>
+        <v>21.94871794871795</v>
       </c>
       <c r="BP3">
-        <v>403.4</v>
-      </c>
-      <c r="BQ3">
-        <v>21.94871794871795</v>
-      </c>
-      <c r="BR3">
         <v>6.974358974358974</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:68">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G4">
         <v>1439400</v>
@@ -2653,36 +2629,30 @@
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>107</v>
+        <v>69.84615384615384</v>
       </c>
       <c r="BP4">
-        <v>125.2</v>
-      </c>
-      <c r="BQ4">
-        <v>69.84615384615384</v>
-      </c>
-      <c r="BR4">
         <v>69.33333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:68">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E5">
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G5">
         <v>6680000</v>
@@ -2865,36 +2835,30 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>137</v>
+        <v>64.92307692307692</v>
       </c>
       <c r="BP5">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="BQ5">
-        <v>64.92307692307692</v>
-      </c>
-      <c r="BR5">
         <v>78.25641025641026</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:68">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E6">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G6">
         <v>5051906</v>
@@ -3077,36 +3041,30 @@
         <v>0</v>
       </c>
       <c r="BO6">
-        <v>143</v>
+        <v>61.02564102564103</v>
       </c>
       <c r="BP6">
-        <v>234.6</v>
-      </c>
-      <c r="BQ6">
-        <v>61.02564102564103</v>
-      </c>
-      <c r="BR6">
         <v>40.51282051282051</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:68">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E7">
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G7">
         <v>2000000</v>
@@ -3289,36 +3247,30 @@
         <v>0</v>
       </c>
       <c r="BO7">
-        <v>105.2</v>
+        <v>68.92307692307693</v>
       </c>
       <c r="BP7">
-        <v>151</v>
-      </c>
-      <c r="BQ7">
-        <v>68.92307692307693</v>
-      </c>
-      <c r="BR7">
         <v>64.2051282051282</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:68">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G8">
         <v>4819451</v>
@@ -3501,36 +3453,30 @@
         <v>0</v>
       </c>
       <c r="BO8">
-        <v>192.8</v>
+        <v>45.12820512820513</v>
       </c>
       <c r="BP8">
-        <v>316.8</v>
-      </c>
-      <c r="BQ8">
-        <v>45.12820512820513</v>
-      </c>
-      <c r="BR8">
         <v>23.58974358974359</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:68">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E9">
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G9">
         <v>3500000</v>
@@ -3713,36 +3659,30 @@
         <v>0</v>
       </c>
       <c r="BO9">
-        <v>257.4</v>
+        <v>31.17948717948718</v>
       </c>
       <c r="BP9">
-        <v>164.4</v>
-      </c>
-      <c r="BQ9">
-        <v>31.17948717948718</v>
-      </c>
-      <c r="BR9">
         <v>62.97435897435897</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:68">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E10">
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G10">
         <v>800000</v>
@@ -3925,36 +3865,30 @@
         <v>0</v>
       </c>
       <c r="BO10">
-        <v>180.4</v>
+        <v>50.87179487179488</v>
       </c>
       <c r="BP10">
-        <v>111.2</v>
-      </c>
-      <c r="BQ10">
-        <v>50.87179487179488</v>
-      </c>
-      <c r="BR10">
         <v>75.17948717948718</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:68">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E11">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G11">
         <v>2530920</v>
@@ -4137,36 +4071,30 @@
         <v>0</v>
       </c>
       <c r="BO11">
-        <v>172.6</v>
+        <v>47.7948717948718</v>
       </c>
       <c r="BP11">
-        <v>174.4</v>
-      </c>
-      <c r="BQ11">
-        <v>47.7948717948718</v>
-      </c>
-      <c r="BR11">
         <v>57.53846153846154</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:68">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E12">
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G12">
         <v>4200000</v>
@@ -4349,36 +4277,30 @@
         <v>0</v>
       </c>
       <c r="BO12">
-        <v>94.2</v>
+        <v>71.28205128205128</v>
       </c>
       <c r="BP12">
-        <v>213.6</v>
-      </c>
-      <c r="BQ12">
-        <v>71.28205128205128</v>
-      </c>
-      <c r="BR12">
         <v>46.46153846153846</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:68">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E13">
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G13">
         <v>510000</v>
@@ -4561,36 +4483,30 @@
         <v>0</v>
       </c>
       <c r="BO13">
-        <v>217.4</v>
+        <v>41.74358974358975</v>
       </c>
       <c r="BP13">
-        <v>272.4</v>
-      </c>
-      <c r="BQ13">
-        <v>41.74358974358975</v>
-      </c>
-      <c r="BR13">
         <v>34.05128205128206</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:68">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E14">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G14">
         <v>301875</v>
@@ -4770,36 +4686,30 @@
         <v>0</v>
       </c>
       <c r="BO14">
-        <v>258.8</v>
+        <v>48.92307692307693</v>
       </c>
       <c r="BP14">
-        <v>287.6</v>
-      </c>
-      <c r="BQ14">
-        <v>48.92307692307693</v>
-      </c>
-      <c r="BR14">
         <v>26.46153846153846</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:68">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E15">
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G15">
         <v>301875</v>
@@ -4982,36 +4892,30 @@
         <v>0</v>
       </c>
       <c r="BO15">
-        <v>251</v>
+        <v>29.53846153846154</v>
       </c>
       <c r="BP15">
-        <v>259.4</v>
-      </c>
-      <c r="BQ15">
-        <v>29.53846153846154</v>
-      </c>
-      <c r="BR15">
         <v>35.17948717948718</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:68">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E16">
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G16">
         <v>7560000</v>
@@ -5194,36 +5098,30 @@
         <v>0</v>
       </c>
       <c r="BO16">
-        <v>120.8</v>
+        <v>64</v>
       </c>
       <c r="BP16">
-        <v>144.8</v>
-      </c>
-      <c r="BQ16">
-        <v>64</v>
-      </c>
-      <c r="BR16">
         <v>67.38461538461539</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:68">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E17">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G17">
         <v>7400000</v>
@@ -5406,36 +5304,30 @@
         <v>0</v>
       </c>
       <c r="BO17">
-        <v>77.8</v>
+        <v>76.1025641025641</v>
       </c>
       <c r="BP17">
-        <v>59.6</v>
-      </c>
-      <c r="BQ17">
-        <v>76.1025641025641</v>
-      </c>
-      <c r="BR17">
         <v>86.97435897435896</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:68">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E18">
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G18">
         <v>4000000</v>
@@ -5618,36 +5510,30 @@
         <v>0</v>
       </c>
       <c r="BO18">
-        <v>243.4</v>
+        <v>35.17948717948718</v>
       </c>
       <c r="BP18">
-        <v>235.2</v>
-      </c>
-      <c r="BQ18">
-        <v>35.17948717948718</v>
-      </c>
-      <c r="BR18">
         <v>37.94871794871795</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:68">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E19">
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G19">
         <v>9000000</v>
@@ -5830,27 +5716,21 @@
         <v>0</v>
       </c>
       <c r="BO19">
-        <v>37.4</v>
+        <v>86.97435897435896</v>
       </c>
       <c r="BP19">
-        <v>32</v>
-      </c>
-      <c r="BQ19">
-        <v>86.97435897435896</v>
-      </c>
-      <c r="BR19">
         <v>92.82051282051282</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:68">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
@@ -5859,7 +5739,7 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G20">
         <v>2000000</v>
@@ -6039,36 +5919,30 @@
         <v>0</v>
       </c>
       <c r="BO20">
-        <v>285.2</v>
+        <v>42.76923076923077</v>
       </c>
       <c r="BP20">
-        <v>271.4</v>
-      </c>
-      <c r="BQ20">
-        <v>42.76923076923077</v>
-      </c>
-      <c r="BR20">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:68">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E21">
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G21">
         <v>47647</v>
@@ -6251,36 +6125,30 @@
         <v>0</v>
       </c>
       <c r="BO21">
-        <v>188</v>
+        <v>44.92307692307692</v>
       </c>
       <c r="BP21">
-        <v>226.8</v>
-      </c>
-      <c r="BQ21">
-        <v>44.92307692307692</v>
-      </c>
-      <c r="BR21">
         <v>42.97435897435897</v>
       </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:68">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E22">
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G22">
         <v>1100000</v>
@@ -6463,27 +6331,21 @@
         <v>0</v>
       </c>
       <c r="BO22">
-        <v>293.4</v>
+        <v>21.94871794871795</v>
       </c>
       <c r="BP22">
-        <v>339.4</v>
-      </c>
-      <c r="BQ22">
-        <v>21.94871794871795</v>
-      </c>
-      <c r="BR22">
         <v>15.28205128205128</v>
       </c>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:68">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -6492,7 +6354,7 @@
         <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G23">
         <v>1333333</v>
@@ -6675,36 +6537,30 @@
         <v>0</v>
       </c>
       <c r="BO23">
-        <v>251.6</v>
+        <v>30.05128205128205</v>
       </c>
       <c r="BP23">
-        <v>220.6</v>
-      </c>
-      <c r="BQ23">
-        <v>30.05128205128205</v>
-      </c>
-      <c r="BR23">
         <v>41.84615384615385</v>
       </c>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:68">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E24">
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G24">
         <v>1000000</v>
@@ -6887,27 +6743,21 @@
         <v>0</v>
       </c>
       <c r="BO24">
-        <v>175.8</v>
+        <v>49.64102564102564</v>
       </c>
       <c r="BP24">
-        <v>183</v>
-      </c>
-      <c r="BQ24">
-        <v>49.64102564102564</v>
-      </c>
-      <c r="BR24">
         <v>56.1025641025641</v>
       </c>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:68">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
@@ -6916,7 +6766,7 @@
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G25">
         <v>3937500</v>
@@ -7099,36 +6949,30 @@
         <v>0</v>
       </c>
       <c r="BO25">
-        <v>131.4</v>
+        <v>62.66666666666667</v>
       </c>
       <c r="BP25">
-        <v>267.4</v>
-      </c>
-      <c r="BQ25">
-        <v>62.66666666666667</v>
-      </c>
-      <c r="BR25">
         <v>34.76923076923077</v>
       </c>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:68">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E26">
         <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G26">
         <v>510000</v>
@@ -7308,36 +7152,30 @@
         <v>0</v>
       </c>
       <c r="BO26">
-        <v>331.8</v>
+        <v>29.53846153846154</v>
       </c>
       <c r="BP26">
-        <v>215</v>
-      </c>
-      <c r="BQ26">
-        <v>29.53846153846154</v>
-      </c>
-      <c r="BR26">
         <v>47.69230769230769</v>
       </c>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:68">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E27">
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G27">
         <v>2267280</v>
@@ -7520,36 +7358,30 @@
         <v>0</v>
       </c>
       <c r="BO27">
-        <v>45.6</v>
+        <v>84.92307692307692</v>
       </c>
       <c r="BP27">
-        <v>31.4</v>
-      </c>
-      <c r="BQ27">
-        <v>84.92307692307692</v>
-      </c>
-      <c r="BR27">
         <v>92.92307692307692</v>
       </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:68">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E28">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G28">
         <v>3500000</v>
@@ -7732,36 +7564,30 @@
         <v>0</v>
       </c>
       <c r="BO28">
-        <v>122.6</v>
+        <v>68.41025641025641</v>
       </c>
       <c r="BP28">
-        <v>47.2</v>
-      </c>
-      <c r="BQ28">
-        <v>68.41025641025641</v>
-      </c>
-      <c r="BR28">
         <v>90.87179487179486</v>
       </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:68">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E29">
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G29">
         <v>1299000</v>
@@ -7944,36 +7770,30 @@
         <v>0</v>
       </c>
       <c r="BO29">
-        <v>171.2</v>
+        <v>52.30769230769231</v>
       </c>
       <c r="BP29">
-        <v>142.2</v>
-      </c>
-      <c r="BQ29">
-        <v>52.30769230769231</v>
-      </c>
-      <c r="BR29">
         <v>67.07692307692308</v>
       </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:68">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E30">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G30">
         <v>3500000</v>
@@ -8156,36 +7976,30 @@
         <v>0</v>
       </c>
       <c r="BO30">
-        <v>139.4</v>
+        <v>63.07692307692307</v>
       </c>
       <c r="BP30">
-        <v>135.4</v>
-      </c>
-      <c r="BQ30">
-        <v>63.07692307692307</v>
-      </c>
-      <c r="BR30">
         <v>65.64102564102564</v>
       </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:68">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E31">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G31">
         <v>301875</v>
@@ -8368,36 +8182,30 @@
         <v>0</v>
       </c>
       <c r="BO31">
-        <v>327.6</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="BP31">
-        <v>388.6</v>
-      </c>
-      <c r="BQ31">
-        <v>14.66666666666667</v>
-      </c>
-      <c r="BR31">
         <v>8.205128205128204</v>
       </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:68">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D32" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E32">
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G32">
         <v>2000000</v>
@@ -8580,36 +8388,30 @@
         <v>0</v>
       </c>
       <c r="BO32">
-        <v>247.4</v>
+        <v>31.58974358974359</v>
       </c>
       <c r="BP32">
-        <v>373.2</v>
-      </c>
-      <c r="BQ32">
-        <v>31.58974358974359</v>
-      </c>
-      <c r="BR32">
         <v>9.538461538461538</v>
       </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:68">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D33" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E33">
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G33">
         <v>2742600</v>
@@ -8792,36 +8594,30 @@
         <v>0</v>
       </c>
       <c r="BO33">
-        <v>82</v>
+        <v>75.48717948717947</v>
       </c>
       <c r="BP33">
-        <v>130.4</v>
-      </c>
-      <c r="BQ33">
-        <v>75.48717948717947</v>
-      </c>
-      <c r="BR33">
         <v>70.46153846153847</v>
       </c>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:68">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E34">
         <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G34">
         <v>1289400</v>
@@ -9004,36 +8800,30 @@
         <v>0</v>
       </c>
       <c r="BO34">
-        <v>142.4</v>
+        <v>57.84615384615385</v>
       </c>
       <c r="BP34">
-        <v>134.2</v>
-      </c>
-      <c r="BQ34">
-        <v>57.84615384615385</v>
-      </c>
-      <c r="BR34">
         <v>69.12820512820514</v>
       </c>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:68">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E35">
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G35">
         <v>1680000</v>
@@ -9216,36 +9006,30 @@
         <v>0</v>
       </c>
       <c r="BO35">
-        <v>248.8</v>
+        <v>32.51282051282051</v>
       </c>
       <c r="BP35">
-        <v>255.4</v>
-      </c>
-      <c r="BQ35">
-        <v>32.51282051282051</v>
-      </c>
-      <c r="BR35">
         <v>35.17948717948718</v>
       </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:68">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E36">
         <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G36">
         <v>2300000</v>
@@ -9428,36 +9212,30 @@
         <v>0</v>
       </c>
       <c r="BO36">
-        <v>201</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="BP36">
-        <v>273</v>
-      </c>
-      <c r="BQ36">
-        <v>46.15384615384615</v>
-      </c>
-      <c r="BR36">
         <v>33.33333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:68">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E37">
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G37">
         <v>510000</v>
@@ -9640,27 +9418,21 @@
         <v>0</v>
       </c>
       <c r="BO37">
-        <v>246.2</v>
+        <v>31.79487179487179</v>
       </c>
       <c r="BP37">
-        <v>348.2</v>
-      </c>
-      <c r="BQ37">
-        <v>31.79487179487179</v>
-      </c>
-      <c r="BR37">
         <v>14.35897435897436</v>
       </c>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:68">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
@@ -9669,7 +9441,7 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G38">
         <v>2000000</v>
@@ -9852,36 +9624,30 @@
         <v>0</v>
       </c>
       <c r="BO38">
-        <v>282.4</v>
+        <v>24</v>
       </c>
       <c r="BP38">
-        <v>277.8</v>
-      </c>
-      <c r="BQ38">
-        <v>24</v>
-      </c>
-      <c r="BR38">
         <v>31.8974358974359</v>
       </c>
     </row>
-    <row r="39" spans="1:70">
+    <row r="39" spans="1:68">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E39">
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G39">
         <v>477000</v>
@@ -10064,27 +9830,21 @@
         <v>0</v>
       </c>
       <c r="BO39">
-        <v>279.8</v>
+        <v>24.92307692307692</v>
       </c>
       <c r="BP39">
-        <v>225.4</v>
-      </c>
-      <c r="BQ39">
-        <v>24.92307692307692</v>
-      </c>
-      <c r="BR39">
         <v>47.28205128205128</v>
       </c>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:68">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -10093,7 +9853,7 @@
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G40">
         <v>2600000</v>
@@ -10273,36 +10033,30 @@
         <v>0</v>
       </c>
       <c r="BO40">
-        <v>274.6</v>
+        <v>43.7948717948718</v>
       </c>
       <c r="BP40">
-        <v>241.2</v>
-      </c>
-      <c r="BQ40">
-        <v>43.7948717948718</v>
-      </c>
-      <c r="BR40">
         <v>40.51282051282051</v>
       </c>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:68">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D41" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E41">
         <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G41">
         <v>704400</v>
@@ -10485,36 +10239,30 @@
         <v>0</v>
       </c>
       <c r="BO41">
-        <v>157.4</v>
+        <v>58.66666666666666</v>
       </c>
       <c r="BP41">
-        <v>252.6</v>
-      </c>
-      <c r="BQ41">
-        <v>58.66666666666666</v>
-      </c>
-      <c r="BR41">
         <v>36.2051282051282</v>
       </c>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:68">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D42" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E42">
         <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G42">
         <v>2100000</v>
@@ -10697,36 +10445,30 @@
         <v>0</v>
       </c>
       <c r="BO42">
-        <v>271</v>
+        <v>32.30769230769231</v>
       </c>
       <c r="BP42">
-        <v>152.6</v>
-      </c>
-      <c r="BQ42">
-        <v>32.30769230769231</v>
-      </c>
-      <c r="BR42">
         <v>62.05128205128205</v>
       </c>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:68">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D43" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E43">
         <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G43">
         <v>2000000</v>
@@ -10909,36 +10651,30 @@
         <v>0</v>
       </c>
       <c r="BO43">
-        <v>288.4</v>
+        <v>24.20512820512821</v>
       </c>
       <c r="BP43">
-        <v>299.8</v>
-      </c>
-      <c r="BQ43">
-        <v>24.20512820512821</v>
-      </c>
-      <c r="BR43">
         <v>28.51282051282051</v>
       </c>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:68">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D44" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E44">
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G44">
         <v>4988000</v>
@@ -11118,36 +10854,30 @@
         <v>0</v>
       </c>
       <c r="BO44">
-        <v>255</v>
+        <v>49.33333333333334</v>
       </c>
       <c r="BP44">
-        <v>342</v>
-      </c>
-      <c r="BQ44">
-        <v>49.33333333333334</v>
-      </c>
-      <c r="BR44">
         <v>17.74358974358974</v>
       </c>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:68">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D45" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E45">
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G45">
         <v>2794920</v>
@@ -11330,36 +11060,30 @@
         <v>0</v>
       </c>
       <c r="BO45">
-        <v>234.6</v>
+        <v>40</v>
       </c>
       <c r="BP45">
-        <v>146.8</v>
-      </c>
-      <c r="BQ45">
-        <v>40</v>
-      </c>
-      <c r="BR45">
         <v>64.61538461538461</v>
       </c>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:68">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D46" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E46">
         <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G46">
         <v>4200000</v>
@@ -11539,36 +11263,30 @@
         <v>0</v>
       </c>
       <c r="BO46">
-        <v>218.4</v>
+        <v>60.30769230769231</v>
       </c>
       <c r="BP46">
-        <v>164.6</v>
-      </c>
-      <c r="BQ46">
-        <v>60.30769230769231</v>
-      </c>
-      <c r="BR46">
         <v>61.02564102564103</v>
       </c>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:68">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D47" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E47">
         <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G47">
         <v>752500</v>
@@ -11751,36 +11469,30 @@
         <v>0</v>
       </c>
       <c r="BO47">
-        <v>279.6</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="BP47">
-        <v>246</v>
-      </c>
-      <c r="BQ47">
-        <v>26.66666666666667</v>
-      </c>
-      <c r="BR47">
         <v>37.84615384615385</v>
       </c>
     </row>
-    <row r="48" spans="1:70">
+    <row r="48" spans="1:68">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D48" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E48">
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G48">
         <v>6000</v>
@@ -11963,36 +11675,30 @@
         <v>0</v>
       </c>
       <c r="BO48">
-        <v>188.6</v>
+        <v>50.35897435897436</v>
       </c>
       <c r="BP48">
-        <v>335.4</v>
-      </c>
-      <c r="BQ48">
-        <v>50.35897435897436</v>
-      </c>
-      <c r="BR48">
         <v>17.94871794871795</v>
       </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:68">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D49" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E49">
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G49">
         <v>1680000</v>
@@ -12172,36 +11878,30 @@
         <v>0</v>
       </c>
       <c r="BO49">
-        <v>235.2</v>
+        <v>54.35897435897436</v>
       </c>
       <c r="BP49">
-        <v>238.6</v>
-      </c>
-      <c r="BQ49">
-        <v>54.35897435897436</v>
-      </c>
-      <c r="BR49">
         <v>39.58974358974359</v>
       </c>
     </row>
-    <row r="50" spans="1:70">
+    <row r="50" spans="1:68">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D50" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E50">
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G50">
         <v>1925000</v>
@@ -12384,36 +12084,30 @@
         <v>0</v>
       </c>
       <c r="BO50">
-        <v>274.2</v>
+        <v>28.30769230769231</v>
       </c>
       <c r="BP50">
-        <v>306.2</v>
-      </c>
-      <c r="BQ50">
-        <v>28.30769230769231</v>
-      </c>
-      <c r="BR50">
         <v>24.71794871794872</v>
       </c>
     </row>
-    <row r="51" spans="1:70">
+    <row r="51" spans="1:68">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D51" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E51">
         <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G51">
         <v>485000</v>
@@ -12596,36 +12290,30 @@
         <v>0</v>
       </c>
       <c r="BO51">
-        <v>240.2</v>
+        <v>33.64102564102564</v>
       </c>
       <c r="BP51">
-        <v>195.6</v>
-      </c>
-      <c r="BQ51">
-        <v>33.64102564102564</v>
-      </c>
-      <c r="BR51">
         <v>50.76923076923077</v>
       </c>
     </row>
-    <row r="52" spans="1:70">
+    <row r="52" spans="1:68">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D52" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E52">
         <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G52">
         <v>301875</v>
@@ -12808,36 +12496,30 @@
         <v>0</v>
       </c>
       <c r="BO52">
-        <v>298.2</v>
+        <v>19.48717948717949</v>
       </c>
       <c r="BP52">
-        <v>250.2</v>
-      </c>
-      <c r="BQ52">
-        <v>19.48717948717949</v>
-      </c>
-      <c r="BR52">
         <v>36.00000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:70">
+    <row r="53" spans="1:68">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D53" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E53">
         <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G53">
         <v>8837774</v>
@@ -13020,36 +12702,30 @@
         <v>0</v>
       </c>
       <c r="BO53">
-        <v>55.8</v>
+        <v>82.05128205128204</v>
       </c>
       <c r="BP53">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="BQ53">
-        <v>82.05128205128204</v>
-      </c>
-      <c r="BR53">
         <v>83.89743589743588</v>
       </c>
     </row>
-    <row r="54" spans="1:70">
+    <row r="54" spans="1:68">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D54" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E54">
         <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G54">
         <v>1000000</v>
@@ -13232,36 +12908,30 @@
         <v>0</v>
       </c>
       <c r="BO54">
-        <v>251.2</v>
+        <v>33.64102564102564</v>
       </c>
       <c r="BP54">
-        <v>151.8</v>
-      </c>
-      <c r="BQ54">
-        <v>33.64102564102564</v>
-      </c>
-      <c r="BR54">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:70">
+    <row r="55" spans="1:68">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D55" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E55">
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G55">
         <v>1105560</v>
@@ -13444,27 +13114,21 @@
         <v>0</v>
       </c>
       <c r="BO55">
-        <v>261</v>
+        <v>27.07692307692308</v>
       </c>
       <c r="BP55">
-        <v>312.6</v>
-      </c>
-      <c r="BQ55">
-        <v>27.07692307692308</v>
-      </c>
-      <c r="BR55">
         <v>22.25641025641026</v>
       </c>
     </row>
-    <row r="56" spans="1:70">
+    <row r="56" spans="1:68">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D56" t="s">
         <v>29</v>
@@ -13473,7 +13137,7 @@
         <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G56">
         <v>3858240</v>
@@ -13656,36 +13320,30 @@
         <v>0</v>
       </c>
       <c r="BO56">
-        <v>44.8</v>
+        <v>85.64102564102564</v>
       </c>
       <c r="BP56">
-        <v>20.4</v>
-      </c>
-      <c r="BQ56">
-        <v>85.64102564102564</v>
-      </c>
-      <c r="BR56">
         <v>96.30769230769232</v>
       </c>
     </row>
-    <row r="57" spans="1:70">
+    <row r="57" spans="1:68">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D57" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E57">
         <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G57">
         <v>1925000</v>
@@ -13868,36 +13526,30 @@
         <v>0</v>
       </c>
       <c r="BO57">
-        <v>188.2</v>
+        <v>46.46153846153846</v>
       </c>
       <c r="BP57">
-        <v>198.2</v>
-      </c>
-      <c r="BQ57">
-        <v>46.46153846153846</v>
-      </c>
-      <c r="BR57">
         <v>52.92307692307693</v>
       </c>
     </row>
-    <row r="58" spans="1:70">
+    <row r="58" spans="1:68">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D58" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E58">
         <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G58">
         <v>5433333</v>
@@ -14080,27 +13732,21 @@
         <v>0</v>
       </c>
       <c r="BO58">
-        <v>245.2</v>
+        <v>32.2051282051282</v>
       </c>
       <c r="BP58">
-        <v>290.4</v>
-      </c>
-      <c r="BQ58">
-        <v>32.2051282051282</v>
-      </c>
-      <c r="BR58">
         <v>25.64102564102564</v>
       </c>
     </row>
-    <row r="59" spans="1:70">
+    <row r="59" spans="1:68">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
@@ -14109,7 +13755,7 @@
         <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G59">
         <v>1925000</v>
@@ -14292,36 +13938,30 @@
         <v>0</v>
       </c>
       <c r="BO59">
-        <v>178.4</v>
+        <v>49.84615384615385</v>
       </c>
       <c r="BP59">
-        <v>229</v>
-      </c>
-      <c r="BQ59">
-        <v>49.84615384615385</v>
-      </c>
-      <c r="BR59">
         <v>41.12820512820513</v>
       </c>
     </row>
-    <row r="60" spans="1:70">
+    <row r="60" spans="1:68">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D60" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E60">
         <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G60">
         <v>301875</v>
@@ -14501,27 +14141,21 @@
         <v>0</v>
       </c>
       <c r="BO60">
-        <v>279.2</v>
+        <v>45.43589743589743</v>
       </c>
       <c r="BP60">
-        <v>239.8</v>
-      </c>
-      <c r="BQ60">
-        <v>45.43589743589743</v>
-      </c>
-      <c r="BR60">
         <v>39.7948717948718</v>
       </c>
     </row>
-    <row r="61" spans="1:70">
+    <row r="61" spans="1:68">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D61" t="s">
         <v>29</v>
@@ -14530,7 +14164,7 @@
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G61">
         <v>510000</v>
@@ -14713,36 +14347,30 @@
         <v>0</v>
       </c>
       <c r="BO61">
-        <v>208.2</v>
+        <v>45.23076923076923</v>
       </c>
       <c r="BP61">
-        <v>150.8</v>
-      </c>
-      <c r="BQ61">
-        <v>45.23076923076923</v>
-      </c>
-      <c r="BR61">
         <v>63.69230769230769</v>
       </c>
     </row>
-    <row r="62" spans="1:70">
+    <row r="62" spans="1:68">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D62" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E62">
         <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G62">
         <v>2000000</v>
@@ -14925,27 +14553,21 @@
         <v>0</v>
       </c>
       <c r="BO62">
-        <v>191.8</v>
+        <v>47.17948717948718</v>
       </c>
       <c r="BP62">
-        <v>263.6</v>
-      </c>
-      <c r="BQ62">
-        <v>47.17948717948718</v>
-      </c>
-      <c r="BR62">
         <v>34.76923076923077</v>
       </c>
     </row>
-    <row r="63" spans="1:70">
+    <row r="63" spans="1:68">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -14954,7 +14576,7 @@
         <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G63">
         <v>4000000</v>
@@ -15137,36 +14759,30 @@
         <v>0</v>
       </c>
       <c r="BO63">
-        <v>217.8</v>
+        <v>41.64102564102564</v>
       </c>
       <c r="BP63">
-        <v>200.8</v>
-      </c>
-      <c r="BQ63">
-        <v>41.64102564102564</v>
-      </c>
-      <c r="BR63">
         <v>49.64102564102564</v>
       </c>
     </row>
-    <row r="64" spans="1:70">
+    <row r="64" spans="1:68">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D64" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E64">
         <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G64">
         <v>7200000</v>
@@ -15349,36 +14965,30 @@
         <v>0</v>
       </c>
       <c r="BO64">
-        <v>66.2</v>
+        <v>81.33333333333333</v>
       </c>
       <c r="BP64">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="BQ64">
-        <v>81.33333333333333</v>
-      </c>
-      <c r="BR64">
         <v>82.05128205128204</v>
       </c>
     </row>
-    <row r="65" spans="1:70">
+    <row r="65" spans="1:68">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D65" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E65">
         <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G65">
         <v>3000000</v>
@@ -15561,27 +15171,21 @@
         <v>0</v>
       </c>
       <c r="BO65">
-        <v>220.6</v>
+        <v>39.8974358974359</v>
       </c>
       <c r="BP65">
-        <v>290.6</v>
-      </c>
-      <c r="BQ65">
-        <v>39.8974358974359</v>
-      </c>
-      <c r="BR65">
         <v>26.97435897435897</v>
       </c>
     </row>
-    <row r="66" spans="1:70">
+    <row r="66" spans="1:68">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -15590,7 +15194,7 @@
         <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G66">
         <v>1678800</v>
@@ -15770,36 +15374,30 @@
         <v>0</v>
       </c>
       <c r="BO66">
-        <v>310.4</v>
+        <v>38.56410256410256</v>
       </c>
       <c r="BP66">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="BQ66">
-        <v>38.56410256410256</v>
-      </c>
-      <c r="BR66">
         <v>80.61538461538461</v>
       </c>
     </row>
-    <row r="67" spans="1:70">
+    <row r="67" spans="1:68">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E67">
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G67">
         <v>3033000</v>
@@ -15982,36 +15580,30 @@
         <v>0</v>
       </c>
       <c r="BO67">
-        <v>206</v>
+        <v>40.92307692307692</v>
       </c>
       <c r="BP67">
-        <v>204</v>
-      </c>
-      <c r="BQ67">
-        <v>40.92307692307692</v>
-      </c>
-      <c r="BR67">
         <v>49.74358974358974</v>
       </c>
     </row>
-    <row r="68" spans="1:70">
+    <row r="68" spans="1:68">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D68" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E68">
         <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G68">
         <v>1922520</v>
@@ -16191,36 +15783,30 @@
         <v>0</v>
       </c>
       <c r="BO68">
-        <v>237.8</v>
+        <v>55.69230769230769</v>
       </c>
       <c r="BP68">
-        <v>276.4</v>
-      </c>
-      <c r="BQ68">
-        <v>55.69230769230769</v>
-      </c>
-      <c r="BR68">
         <v>30.05128205128205</v>
       </c>
     </row>
-    <row r="69" spans="1:70">
+    <row r="69" spans="1:68">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D69" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E69">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G69">
         <v>3020520</v>
@@ -16403,27 +15989,21 @@
         <v>0</v>
       </c>
       <c r="BO69">
-        <v>69.59999999999999</v>
+        <v>79.8974358974359</v>
       </c>
       <c r="BP69">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="BQ69">
-        <v>79.8974358974359</v>
-      </c>
-      <c r="BR69">
         <v>84.71794871794872</v>
       </c>
     </row>
-    <row r="70" spans="1:70">
+    <row r="70" spans="1:68">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
@@ -16432,7 +16012,7 @@
         <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G70">
         <v>2400000</v>
@@ -16615,27 +16195,21 @@
         <v>0</v>
       </c>
       <c r="BO70">
-        <v>255.8</v>
+        <v>30.35897435897436</v>
       </c>
       <c r="BP70">
-        <v>101</v>
-      </c>
-      <c r="BQ70">
-        <v>30.35897435897436</v>
-      </c>
-      <c r="BR70">
         <v>76.2051282051282</v>
       </c>
     </row>
-    <row r="71" spans="1:70">
+    <row r="71" spans="1:68">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D71" t="s">
         <v>29</v>
@@ -16644,7 +16218,7 @@
         <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G71">
         <v>16806300</v>
@@ -16827,36 +16401,30 @@
         <v>0</v>
       </c>
       <c r="BO71">
-        <v>19.6</v>
+        <v>92</v>
       </c>
       <c r="BP71">
-        <v>31.8</v>
-      </c>
-      <c r="BQ71">
-        <v>92</v>
-      </c>
-      <c r="BR71">
         <v>92.82051282051282</v>
       </c>
     </row>
-    <row r="72" spans="1:70">
+    <row r="72" spans="1:68">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D72" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E72">
         <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G72">
         <v>2520000</v>
@@ -17036,36 +16604,30 @@
         <v>0</v>
       </c>
       <c r="BO72">
-        <v>303.4</v>
+        <v>40</v>
       </c>
       <c r="BP72">
-        <v>322.8</v>
-      </c>
-      <c r="BQ72">
-        <v>40</v>
-      </c>
-      <c r="BR72">
         <v>19.69230769230769</v>
       </c>
     </row>
-    <row r="73" spans="1:70">
+    <row r="73" spans="1:68">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D73" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E73">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G73">
         <v>6889520</v>
@@ -17248,36 +16810,30 @@
         <v>0</v>
       </c>
       <c r="BO73">
-        <v>207.2</v>
+        <v>42.05128205128205</v>
       </c>
       <c r="BP73">
-        <v>231.4</v>
-      </c>
-      <c r="BQ73">
-        <v>42.05128205128205</v>
-      </c>
-      <c r="BR73">
         <v>44.2051282051282</v>
       </c>
     </row>
-    <row r="74" spans="1:70">
+    <row r="74" spans="1:68">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D74" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E74">
         <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G74">
         <v>5600000</v>
@@ -17460,36 +17016,30 @@
         <v>0</v>
       </c>
       <c r="BO74">
-        <v>94</v>
+        <v>72.71794871794872</v>
       </c>
       <c r="BP74">
-        <v>180.6</v>
-      </c>
-      <c r="BQ74">
-        <v>72.71794871794872</v>
-      </c>
-      <c r="BR74">
         <v>54.76923076923077</v>
       </c>
     </row>
-    <row r="75" spans="1:70">
+    <row r="75" spans="1:68">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D75" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E75">
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G75">
         <v>893400</v>
@@ -17672,27 +17222,21 @@
         <v>0</v>
       </c>
       <c r="BO75">
-        <v>280</v>
+        <v>21.84615384615385</v>
       </c>
       <c r="BP75">
-        <v>258.2</v>
-      </c>
-      <c r="BQ75">
-        <v>21.84615384615385</v>
-      </c>
-      <c r="BR75">
         <v>36.41025641025641</v>
       </c>
     </row>
-    <row r="76" spans="1:70">
+    <row r="76" spans="1:68">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D76" t="s">
         <v>29</v>
@@ -17701,7 +17245,7 @@
         <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G76">
         <v>1700000</v>
@@ -17884,36 +17428,30 @@
         <v>0</v>
       </c>
       <c r="BO76">
-        <v>214.6</v>
+        <v>38.25641025641026</v>
       </c>
       <c r="BP76">
-        <v>244</v>
-      </c>
-      <c r="BQ76">
-        <v>38.25641025641026</v>
-      </c>
-      <c r="BR76">
         <v>40.71794871794872</v>
       </c>
     </row>
-    <row r="77" spans="1:70">
+    <row r="77" spans="1:68">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C77" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D77" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E77">
         <v>25</v>
       </c>
       <c r="F77" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G77">
         <v>385000</v>
@@ -18096,36 +17634,30 @@
         <v>0</v>
       </c>
       <c r="BO77">
-        <v>137.4</v>
+        <v>62.05128205128205</v>
       </c>
       <c r="BP77">
-        <v>217</v>
-      </c>
-      <c r="BQ77">
-        <v>62.05128205128205</v>
-      </c>
-      <c r="BR77">
         <v>47.7948717948718</v>
       </c>
     </row>
-    <row r="78" spans="1:70">
+    <row r="78" spans="1:68">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D78" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E78">
         <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G78">
         <v>460000</v>
@@ -18308,36 +17840,30 @@
         <v>0</v>
       </c>
       <c r="BO78">
-        <v>160.8</v>
+        <v>53.23076923076923</v>
       </c>
       <c r="BP78">
-        <v>206</v>
-      </c>
-      <c r="BQ78">
-        <v>53.23076923076923</v>
-      </c>
-      <c r="BR78">
         <v>49.64102564102564</v>
       </c>
     </row>
-    <row r="79" spans="1:70">
+    <row r="79" spans="1:68">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D79" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E79">
         <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G79">
         <v>1836240</v>
@@ -18520,36 +18046,30 @@
         <v>0</v>
       </c>
       <c r="BO79">
-        <v>256.8</v>
+        <v>30.25641025641026</v>
       </c>
       <c r="BP79">
-        <v>283.8</v>
-      </c>
-      <c r="BQ79">
-        <v>30.25641025641026</v>
-      </c>
-      <c r="BR79">
         <v>29.94871794871795</v>
       </c>
     </row>
-    <row r="80" spans="1:70">
+    <row r="80" spans="1:68">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D80" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E80">
         <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G80">
         <v>510000</v>
@@ -18729,36 +18249,30 @@
         <v>0</v>
       </c>
       <c r="BO80">
-        <v>281.4</v>
+        <v>46.97435897435897</v>
       </c>
       <c r="BP80">
-        <v>313.6</v>
-      </c>
-      <c r="BQ80">
-        <v>46.97435897435897</v>
-      </c>
-      <c r="BR80">
         <v>22.87179487179487</v>
       </c>
     </row>
-    <row r="81" spans="1:70">
+    <row r="81" spans="1:68">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D81" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E81">
         <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G81">
         <v>2000000</v>
@@ -18941,36 +18455,30 @@
         <v>0</v>
       </c>
       <c r="BO81">
-        <v>117.8</v>
+        <v>66.15384615384615</v>
       </c>
       <c r="BP81">
-        <v>236.4</v>
-      </c>
-      <c r="BQ81">
-        <v>66.15384615384615</v>
-      </c>
-      <c r="BR81">
         <v>41.02564102564102</v>
       </c>
     </row>
-    <row r="82" spans="1:70">
+    <row r="82" spans="1:68">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D82" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E82">
         <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G82">
         <v>1920000</v>
@@ -19153,27 +18661,21 @@
         <v>0</v>
       </c>
       <c r="BO82">
-        <v>228</v>
+        <v>37.64102564102564</v>
       </c>
       <c r="BP82">
-        <v>222</v>
-      </c>
-      <c r="BQ82">
-        <v>37.64102564102564</v>
-      </c>
-      <c r="BR82">
         <v>44.30769230769231</v>
       </c>
     </row>
-    <row r="83" spans="1:70">
+    <row r="83" spans="1:68">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D83" t="s">
         <v>29</v>
@@ -19182,7 +18684,7 @@
         <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G83">
         <v>5318437</v>
@@ -19365,36 +18867,30 @@
         <v>0</v>
       </c>
       <c r="BO83">
-        <v>115.4</v>
+        <v>65.74358974358974</v>
       </c>
       <c r="BP83">
-        <v>184.8</v>
-      </c>
-      <c r="BQ83">
-        <v>65.74358974358974</v>
-      </c>
-      <c r="BR83">
         <v>53.84615384615385</v>
       </c>
     </row>
-    <row r="84" spans="1:70">
+    <row r="84" spans="1:68">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D84" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E84">
         <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G84">
         <v>2400000</v>
@@ -19577,36 +19073,30 @@
         <v>0</v>
       </c>
       <c r="BO84">
-        <v>233.2</v>
+        <v>33.64102564102564</v>
       </c>
       <c r="BP84">
-        <v>367.6</v>
-      </c>
-      <c r="BQ84">
-        <v>33.64102564102564</v>
-      </c>
-      <c r="BR84">
         <v>11.79487179487179</v>
       </c>
     </row>
-    <row r="85" spans="1:70">
+    <row r="85" spans="1:68">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D85" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E85">
         <v>24</v>
       </c>
       <c r="F85" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G85">
         <v>301875</v>
@@ -19789,27 +19279,21 @@
         <v>0</v>
       </c>
       <c r="BO85">
-        <v>300.6</v>
+        <v>19.7948717948718</v>
       </c>
       <c r="BP85">
-        <v>337</v>
-      </c>
-      <c r="BQ85">
-        <v>19.7948717948718</v>
-      </c>
-      <c r="BR85">
         <v>17.84615384615385</v>
       </c>
     </row>
-    <row r="86" spans="1:70">
+    <row r="86" spans="1:68">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D86" t="s">
         <v>29</v>
@@ -19818,7 +19302,7 @@
         <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G86">
         <v>6422400</v>
@@ -20001,27 +19485,21 @@
         <v>0</v>
       </c>
       <c r="BO86">
-        <v>140.8</v>
+        <v>59.6923076923077</v>
       </c>
       <c r="BP86">
-        <v>153.4</v>
-      </c>
-      <c r="BQ86">
-        <v>59.6923076923077</v>
-      </c>
-      <c r="BR86">
         <v>63.69230769230769</v>
       </c>
     </row>
-    <row r="87" spans="1:70">
+    <row r="87" spans="1:68">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D87" t="s">
         <v>29</v>
@@ -20030,7 +19508,7 @@
         <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G87">
         <v>4800000</v>
@@ -20213,27 +19691,21 @@
         <v>0</v>
       </c>
       <c r="BO87">
-        <v>134.2</v>
+        <v>60.82051282051282</v>
       </c>
       <c r="BP87">
-        <v>157.6</v>
-      </c>
-      <c r="BQ87">
-        <v>60.82051282051282</v>
-      </c>
-      <c r="BR87">
         <v>62.56410256410256</v>
       </c>
     </row>
-    <row r="88" spans="1:70">
+    <row r="88" spans="1:68">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
@@ -20242,7 +19714,7 @@
         <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G88">
         <v>15000000</v>
@@ -20425,36 +19897,30 @@
         <v>0</v>
       </c>
       <c r="BO88">
-        <v>113.6</v>
+        <v>67.69230769230769</v>
       </c>
       <c r="BP88">
-        <v>218.6</v>
-      </c>
-      <c r="BQ88">
-        <v>67.69230769230769</v>
-      </c>
-      <c r="BR88">
         <v>44.30769230769231</v>
       </c>
     </row>
-    <row r="89" spans="1:70">
+    <row r="89" spans="1:68">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C89" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D89" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E89">
         <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G89">
         <v>460000</v>
@@ -20637,27 +20103,21 @@
         <v>0</v>
       </c>
       <c r="BO89">
-        <v>207.2</v>
+        <v>44.1025641025641</v>
       </c>
       <c r="BP89">
-        <v>322.8</v>
-      </c>
-      <c r="BQ89">
-        <v>44.1025641025641</v>
-      </c>
-      <c r="BR89">
         <v>21.23076923076923</v>
       </c>
     </row>
-    <row r="90" spans="1:70">
+    <row r="90" spans="1:68">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D90" t="s">
         <v>29</v>
@@ -20666,7 +20126,7 @@
         <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G90">
         <v>115423</v>
@@ -20849,36 +20309,30 @@
         <v>0</v>
       </c>
       <c r="BO90">
-        <v>333</v>
+        <v>11.8974358974359</v>
       </c>
       <c r="BP90">
-        <v>291.8</v>
-      </c>
-      <c r="BQ90">
-        <v>11.8974358974359</v>
-      </c>
-      <c r="BR90">
         <v>28.41025641025641</v>
       </c>
     </row>
-    <row r="91" spans="1:70">
+    <row r="91" spans="1:68">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C91" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D91" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E91">
         <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G91">
         <v>2350000</v>
@@ -21061,36 +20515,30 @@
         <v>0</v>
       </c>
       <c r="BO91">
-        <v>111.8</v>
+        <v>67.69230769230769</v>
       </c>
       <c r="BP91">
-        <v>168.4</v>
-      </c>
-      <c r="BQ91">
-        <v>67.69230769230769</v>
-      </c>
-      <c r="BR91">
         <v>59.17948717948718</v>
       </c>
     </row>
-    <row r="92" spans="1:70">
+    <row r="92" spans="1:68">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C92" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D92" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E92">
         <v>26</v>
       </c>
       <c r="F92" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G92">
         <v>903360</v>
@@ -21273,36 +20721,30 @@
         <v>0</v>
       </c>
       <c r="BO92">
-        <v>235.8</v>
+        <v>34.46153846153847</v>
       </c>
       <c r="BP92">
-        <v>195.8</v>
-      </c>
-      <c r="BQ92">
-        <v>34.46153846153847</v>
-      </c>
-      <c r="BR92">
         <v>51.7948717948718</v>
       </c>
     </row>
-    <row r="93" spans="1:70">
+    <row r="93" spans="1:68">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C93" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D93" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E93">
         <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G93">
         <v>2483333</v>
@@ -21485,36 +20927,30 @@
         <v>0</v>
       </c>
       <c r="BO93">
-        <v>248.2</v>
+        <v>34.35897435897436</v>
       </c>
       <c r="BP93">
-        <v>240.8</v>
-      </c>
-      <c r="BQ93">
-        <v>34.35897435897436</v>
-      </c>
-      <c r="BR93">
         <v>39.69230769230769</v>
       </c>
     </row>
-    <row r="94" spans="1:70">
+    <row r="94" spans="1:68">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E94">
         <v>23</v>
       </c>
       <c r="F94" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G94">
         <v>302875</v>
@@ -21697,36 +21133,30 @@
         <v>0</v>
       </c>
       <c r="BO94">
-        <v>328.2</v>
+        <v>11.58974358974359</v>
       </c>
       <c r="BP94">
-        <v>393.2</v>
-      </c>
-      <c r="BQ94">
-        <v>11.58974358974359</v>
-      </c>
-      <c r="BR94">
         <v>8.102564102564102</v>
       </c>
     </row>
-    <row r="95" spans="1:70">
+    <row r="95" spans="1:68">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D95" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E95">
         <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G95">
         <v>1925000</v>
@@ -21909,36 +21339,30 @@
         <v>0</v>
       </c>
       <c r="BO95">
-        <v>157.2</v>
+        <v>57.12820512820513</v>
       </c>
       <c r="BP95">
-        <v>181.6</v>
-      </c>
-      <c r="BQ95">
-        <v>57.12820512820513</v>
-      </c>
-      <c r="BR95">
         <v>53.94871794871795</v>
       </c>
     </row>
-    <row r="96" spans="1:70">
+    <row r="96" spans="1:68">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C96" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D96" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E96">
         <v>23</v>
       </c>
       <c r="F96" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G96">
         <v>2503800</v>
@@ -22121,36 +21545,30 @@
         <v>0</v>
       </c>
       <c r="BO96">
-        <v>117.2</v>
+        <v>64.61538461538461</v>
       </c>
       <c r="BP96">
-        <v>178.8</v>
-      </c>
-      <c r="BQ96">
-        <v>64.61538461538461</v>
-      </c>
-      <c r="BR96">
         <v>54.97435897435897</v>
       </c>
     </row>
-    <row r="97" spans="1:70">
+    <row r="97" spans="1:68">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D97" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E97">
         <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G97">
         <v>3200000</v>
@@ -22333,36 +21751,30 @@
         <v>0</v>
       </c>
       <c r="BO97">
-        <v>164.4</v>
+        <v>55.7948717948718</v>
       </c>
       <c r="BP97">
-        <v>168.8</v>
-      </c>
-      <c r="BQ97">
-        <v>55.7948717948718</v>
-      </c>
-      <c r="BR97">
         <v>60.20512820512821</v>
       </c>
     </row>
-    <row r="98" spans="1:70">
+    <row r="98" spans="1:68">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C98" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D98" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E98">
         <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G98">
         <v>2951029</v>
@@ -22545,36 +21957,30 @@
         <v>0</v>
       </c>
       <c r="BO98">
-        <v>143.6</v>
+        <v>57.74358974358974</v>
       </c>
       <c r="BP98">
-        <v>187.8</v>
-      </c>
-      <c r="BQ98">
-        <v>57.74358974358974</v>
-      </c>
-      <c r="BR98">
         <v>57.12820512820513</v>
       </c>
     </row>
-    <row r="99" spans="1:70">
+    <row r="99" spans="1:68">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D99" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E99">
         <v>24</v>
       </c>
       <c r="F99" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G99">
         <v>385000</v>
@@ -22757,36 +22163,30 @@
         <v>0</v>
       </c>
       <c r="BO99">
-        <v>283.2</v>
+        <v>24.30769230769231</v>
       </c>
       <c r="BP99">
-        <v>333.8</v>
-      </c>
-      <c r="BQ99">
-        <v>24.30769230769231</v>
-      </c>
-      <c r="BR99">
         <v>18.46153846153846</v>
       </c>
     </row>
-    <row r="100" spans="1:70">
+    <row r="100" spans="1:68">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D100" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E100">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G100">
         <v>10780000</v>
@@ -22969,36 +22369,30 @@
         <v>0</v>
       </c>
       <c r="BO100">
-        <v>68.8</v>
+        <v>79.07692307692307</v>
       </c>
       <c r="BP100">
-        <v>141.4</v>
-      </c>
-      <c r="BQ100">
-        <v>79.07692307692307</v>
-      </c>
-      <c r="BR100">
         <v>63.8974358974359</v>
       </c>
     </row>
-    <row r="101" spans="1:70">
+    <row r="101" spans="1:68">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C101" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D101" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E101">
         <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G101">
         <v>1000000</v>
@@ -23181,36 +22575,30 @@
         <v>0</v>
       </c>
       <c r="BO101">
-        <v>185.2</v>
+        <v>44.92307692307692</v>
       </c>
       <c r="BP101">
-        <v>283.6</v>
-      </c>
-      <c r="BQ101">
-        <v>44.92307692307692</v>
-      </c>
-      <c r="BR101">
         <v>28.41025641025641</v>
       </c>
     </row>
-    <row r="102" spans="1:70">
+    <row r="102" spans="1:68">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C102" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D102" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E102">
         <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G102">
         <v>460000</v>
@@ -23390,36 +22778,30 @@
         <v>0</v>
       </c>
       <c r="BO102">
-        <v>307.8</v>
+        <v>39.17948717948718</v>
       </c>
       <c r="BP102">
-        <v>201.2</v>
-      </c>
-      <c r="BQ102">
-        <v>39.17948717948718</v>
-      </c>
-      <c r="BR102">
         <v>50.05128205128205</v>
       </c>
     </row>
-    <row r="103" spans="1:70">
+    <row r="103" spans="1:68">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D103" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E103">
         <v>25</v>
       </c>
       <c r="F103" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G103">
         <v>7166666</v>
@@ -23602,36 +22984,30 @@
         <v>0</v>
       </c>
       <c r="BO103">
-        <v>134.2</v>
+        <v>63.38461538461539</v>
       </c>
       <c r="BP103">
-        <v>125</v>
-      </c>
-      <c r="BQ103">
-        <v>63.38461538461539</v>
-      </c>
-      <c r="BR103">
         <v>72.82051282051282</v>
       </c>
     </row>
-    <row r="104" spans="1:70">
+    <row r="104" spans="1:68">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D104" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E104">
         <v>24</v>
       </c>
       <c r="F104" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G104">
         <v>1234080</v>
@@ -23814,36 +23190,30 @@
         <v>0</v>
       </c>
       <c r="BO104">
-        <v>120.2</v>
+        <v>65.53846153846153</v>
       </c>
       <c r="BP104">
-        <v>202.6</v>
-      </c>
-      <c r="BQ104">
-        <v>65.53846153846153</v>
-      </c>
-      <c r="BR104">
         <v>48.82051282051282</v>
       </c>
     </row>
-    <row r="105" spans="1:70">
+    <row r="105" spans="1:68">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C105" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D105" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E105">
         <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G105">
         <v>6062500</v>
@@ -24026,36 +23396,30 @@
         <v>0</v>
       </c>
       <c r="BO105">
-        <v>100.4</v>
+        <v>70.76923076923077</v>
       </c>
       <c r="BP105">
-        <v>132.4</v>
-      </c>
-      <c r="BQ105">
-        <v>70.76923076923077</v>
-      </c>
-      <c r="BR105">
         <v>68.30769230769231</v>
       </c>
     </row>
-    <row r="106" spans="1:70">
+    <row r="106" spans="1:68">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C106" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D106" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E106">
         <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G106">
         <v>2777160</v>
@@ -24238,36 +23602,30 @@
         <v>0</v>
       </c>
       <c r="BO106">
-        <v>120.8</v>
+        <v>63.8974358974359</v>
       </c>
       <c r="BP106">
-        <v>137.4</v>
-      </c>
-      <c r="BQ106">
-        <v>63.8974358974359</v>
-      </c>
-      <c r="BR106">
         <v>69.43589743589745</v>
       </c>
     </row>
-    <row r="107" spans="1:70">
+    <row r="107" spans="1:68">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C107" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D107" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E107">
         <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G107">
         <v>1394280</v>
@@ -24450,36 +23808,30 @@
         <v>0</v>
       </c>
       <c r="BO107">
-        <v>303.8</v>
+        <v>20.61538461538462</v>
       </c>
       <c r="BP107">
-        <v>232.2</v>
-      </c>
-      <c r="BQ107">
-        <v>20.61538461538462</v>
-      </c>
-      <c r="BR107">
         <v>41.23076923076923</v>
       </c>
     </row>
-    <row r="108" spans="1:70">
+    <row r="108" spans="1:68">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C108" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D108" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E108">
         <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G108">
         <v>510000</v>
@@ -24662,36 +24014,30 @@
         <v>0</v>
       </c>
       <c r="BO108">
-        <v>341.8</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="BP108">
-        <v>369.2</v>
-      </c>
-      <c r="BQ108">
         <v>10.25641025641026</v>
       </c>
-      <c r="BR108">
-        <v>10.25641025641026</v>
-      </c>
     </row>
-    <row r="109" spans="1:70">
+    <row r="109" spans="1:68">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D109" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E109">
         <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G109">
         <v>809280</v>
@@ -24874,36 +24220,30 @@
         <v>0</v>
       </c>
       <c r="BO109">
-        <v>285.2</v>
+        <v>26.35897435897436</v>
       </c>
       <c r="BP109">
-        <v>220.8</v>
-      </c>
-      <c r="BQ109">
-        <v>26.35897435897436</v>
-      </c>
-      <c r="BR109">
         <v>45.33333333333334</v>
       </c>
     </row>
-    <row r="110" spans="1:70">
+    <row r="110" spans="1:68">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D110" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E110">
         <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G110">
         <v>2000000</v>
@@ -25086,36 +24426,30 @@
         <v>0</v>
       </c>
       <c r="BO110">
-        <v>95</v>
+        <v>72.51282051282053</v>
       </c>
       <c r="BP110">
-        <v>182.2</v>
-      </c>
-      <c r="BQ110">
-        <v>72.51282051282053</v>
-      </c>
-      <c r="BR110">
         <v>57.43589743589743</v>
       </c>
     </row>
-    <row r="111" spans="1:70">
+    <row r="111" spans="1:68">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D111" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E111">
         <v>29</v>
       </c>
       <c r="F111" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G111">
         <v>315000</v>
@@ -25298,27 +24632,21 @@
         <v>0</v>
       </c>
       <c r="BO111">
-        <v>279.4</v>
+        <v>27.17948717948718</v>
       </c>
       <c r="BP111">
-        <v>334.6</v>
-      </c>
-      <c r="BQ111">
-        <v>27.17948717948718</v>
-      </c>
-      <c r="BR111">
         <v>18.15384615384615</v>
       </c>
     </row>
-    <row r="112" spans="1:70">
+    <row r="112" spans="1:68">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C112" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D112" t="s">
         <v>29</v>
@@ -25327,7 +24655,7 @@
         <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G112">
         <v>6833333</v>
@@ -25510,36 +24838,30 @@
         <v>0</v>
       </c>
       <c r="BO112">
-        <v>198.6</v>
+        <v>41.23076923076923</v>
       </c>
       <c r="BP112">
-        <v>318.8</v>
-      </c>
-      <c r="BQ112">
-        <v>41.23076923076923</v>
-      </c>
-      <c r="BR112">
         <v>19.69230769230769</v>
       </c>
     </row>
-    <row r="113" spans="1:70">
+    <row r="113" spans="1:68">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C113" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D113" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E113">
         <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G113">
         <v>9000000</v>
@@ -25722,27 +25044,21 @@
         <v>0</v>
       </c>
       <c r="BO113">
-        <v>105.4</v>
+        <v>71.17948717948718</v>
       </c>
       <c r="BP113">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="BQ113">
-        <v>71.17948717948718</v>
-      </c>
-      <c r="BR113">
         <v>85.53846153846155</v>
       </c>
     </row>
-    <row r="114" spans="1:70">
+    <row r="114" spans="1:68">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C114" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D114" t="s">
         <v>29</v>
@@ -25751,7 +25067,7 @@
         <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G114">
         <v>5250000</v>
@@ -25934,36 +25250,30 @@
         <v>0</v>
       </c>
       <c r="BO114">
-        <v>65</v>
+        <v>80.71794871794872</v>
       </c>
       <c r="BP114">
-        <v>153.8</v>
-      </c>
-      <c r="BQ114">
-        <v>80.71794871794872</v>
-      </c>
-      <c r="BR114">
         <v>62.15384615384616</v>
       </c>
     </row>
-    <row r="115" spans="1:70">
+    <row r="115" spans="1:68">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C115" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D115" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E115">
         <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G115">
         <v>572500</v>
@@ -26146,27 +25456,21 @@
         <v>0</v>
       </c>
       <c r="BO115">
-        <v>302.8</v>
+        <v>19.8974358974359</v>
       </c>
       <c r="BP115">
-        <v>254.2</v>
-      </c>
-      <c r="BQ115">
-        <v>19.8974358974359</v>
-      </c>
-      <c r="BR115">
         <v>38.15384615384615</v>
       </c>
     </row>
-    <row r="116" spans="1:70">
+    <row r="116" spans="1:68">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C116" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D116" t="s">
         <v>29</v>
@@ -26175,7 +25479,7 @@
         <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G116">
         <v>1150000</v>
@@ -26355,27 +25659,21 @@
         <v>0</v>
       </c>
       <c r="BO116">
-        <v>305.4</v>
+        <v>40.51282051282051</v>
       </c>
       <c r="BP116">
-        <v>198.6</v>
-      </c>
-      <c r="BQ116">
-        <v>40.51282051282051</v>
-      </c>
-      <c r="BR116">
         <v>50.25641025641026</v>
       </c>
     </row>
-    <row r="117" spans="1:70">
+    <row r="117" spans="1:68">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C117" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D117" t="s">
         <v>29</v>
@@ -26384,7 +25682,7 @@
         <v>25</v>
       </c>
       <c r="F117" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G117">
         <v>2500000</v>
@@ -26567,36 +25865,30 @@
         <v>0</v>
       </c>
       <c r="BO117">
-        <v>251.6</v>
+        <v>28.71794871794872</v>
       </c>
       <c r="BP117">
-        <v>367.2</v>
-      </c>
-      <c r="BQ117">
-        <v>28.71794871794872</v>
-      </c>
-      <c r="BR117">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:70">
+    <row r="118" spans="1:68">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C118" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D118" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E118">
         <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G118">
         <v>2000000</v>
@@ -26779,27 +26071,21 @@
         <v>0</v>
       </c>
       <c r="BO118">
-        <v>153.6</v>
+        <v>55.07692307692308</v>
       </c>
       <c r="BP118">
-        <v>176.4</v>
-      </c>
-      <c r="BQ118">
-        <v>55.07692307692308</v>
-      </c>
-      <c r="BR118">
         <v>56.30769230769231</v>
       </c>
     </row>
-    <row r="119" spans="1:70">
+    <row r="119" spans="1:68">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C119" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D119" t="s">
         <v>29</v>
@@ -26808,7 +26094,7 @@
         <v>25</v>
       </c>
       <c r="F119" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G119">
         <v>9900000</v>
@@ -26991,36 +26277,30 @@
         <v>0</v>
       </c>
       <c r="BO119">
-        <v>68.59999999999999</v>
+        <v>79.28205128205128</v>
       </c>
       <c r="BP119">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="BQ119">
-        <v>79.28205128205128</v>
-      </c>
-      <c r="BR119">
         <v>82.97435897435898</v>
       </c>
     </row>
-    <row r="120" spans="1:70">
+    <row r="120" spans="1:68">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C120" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D120" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E120">
         <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G120">
         <v>4800000</v>
@@ -27200,36 +26480,30 @@
         <v>0</v>
       </c>
       <c r="BO120">
-        <v>249.4</v>
+        <v>55.58974358974359</v>
       </c>
       <c r="BP120">
-        <v>305.6</v>
-      </c>
-      <c r="BQ120">
-        <v>55.58974358974359</v>
-      </c>
-      <c r="BR120">
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:70">
+    <row r="121" spans="1:68">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C121" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D121" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E121">
         <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G121">
         <v>1624000</v>
@@ -27412,36 +26686,30 @@
         <v>0</v>
       </c>
       <c r="BO121">
-        <v>157.4</v>
+        <v>57.33333333333334</v>
       </c>
       <c r="BP121">
-        <v>189.6</v>
-      </c>
-      <c r="BQ121">
-        <v>57.33333333333334</v>
-      </c>
-      <c r="BR121">
         <v>54.56410256410257</v>
       </c>
     </row>
-    <row r="122" spans="1:70">
+    <row r="122" spans="1:68">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C122" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D122" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E122">
         <v>24</v>
       </c>
       <c r="F122" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G122">
         <v>914760</v>
@@ -27624,36 +26892,30 @@
         <v>0</v>
       </c>
       <c r="BO122">
-        <v>251.8</v>
+        <v>32.2051282051282</v>
       </c>
       <c r="BP122">
-        <v>331.4</v>
-      </c>
-      <c r="BQ122">
-        <v>32.2051282051282</v>
-      </c>
-      <c r="BR122">
         <v>20.30769230769231</v>
       </c>
     </row>
-    <row r="123" spans="1:70">
+    <row r="123" spans="1:68">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C123" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D123" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E123">
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G123">
         <v>1682280</v>
@@ -27836,27 +27098,21 @@
         <v>0</v>
       </c>
       <c r="BO123">
-        <v>139.2</v>
+        <v>62.56410256410256</v>
       </c>
       <c r="BP123">
-        <v>106</v>
-      </c>
-      <c r="BQ123">
-        <v>62.56410256410256</v>
-      </c>
-      <c r="BR123">
         <v>76.71794871794872</v>
       </c>
     </row>
-    <row r="124" spans="1:70">
+    <row r="124" spans="1:68">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C124" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
@@ -27865,7 +27121,7 @@
         <v>28</v>
       </c>
       <c r="F124" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G124">
         <v>30000</v>
@@ -28045,36 +27301,30 @@
         <v>0</v>
       </c>
       <c r="BO124">
-        <v>327.4</v>
+        <v>35.07692307692308</v>
       </c>
       <c r="BP124">
-        <v>204.4</v>
-      </c>
-      <c r="BQ124">
-        <v>35.07692307692308</v>
-      </c>
-      <c r="BR124">
         <v>49.33333333333334</v>
       </c>
     </row>
-    <row r="125" spans="1:70">
+    <row r="125" spans="1:68">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C125" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D125" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E125">
         <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G125">
         <v>4200000</v>
@@ -28257,27 +27507,21 @@
         <v>0</v>
       </c>
       <c r="BO125">
-        <v>134.4</v>
+        <v>63.69230769230769</v>
       </c>
       <c r="BP125">
-        <v>171.6</v>
-      </c>
-      <c r="BQ125">
-        <v>63.69230769230769</v>
-      </c>
-      <c r="BR125">
         <v>56.92307692307692</v>
       </c>
     </row>
-    <row r="126" spans="1:70">
+    <row r="126" spans="1:68">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C126" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
@@ -28286,7 +27530,7 @@
         <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G126">
         <v>510000</v>
@@ -28469,36 +27713,30 @@
         <v>0</v>
       </c>
       <c r="BO126">
-        <v>201.2</v>
+        <v>41.84615384615385</v>
       </c>
       <c r="BP126">
-        <v>220.8</v>
-      </c>
-      <c r="BQ126">
-        <v>41.84615384615385</v>
-      </c>
-      <c r="BR126">
         <v>45.43589743589743</v>
       </c>
     </row>
-    <row r="127" spans="1:70">
+    <row r="127" spans="1:68">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C127" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D127" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E127">
         <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G127">
         <v>2000000</v>
@@ -28681,36 +27919,30 @@
         <v>0</v>
       </c>
       <c r="BO127">
-        <v>250.6</v>
+        <v>32.92307692307693</v>
       </c>
       <c r="BP127">
-        <v>252.8</v>
-      </c>
-      <c r="BQ127">
-        <v>32.92307692307693</v>
-      </c>
-      <c r="BR127">
         <v>36.71794871794872</v>
       </c>
     </row>
-    <row r="128" spans="1:70">
+    <row r="128" spans="1:68">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C128" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E128">
         <v>24</v>
       </c>
       <c r="F128" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G128">
         <v>385000</v>
@@ -28893,36 +28125,30 @@
         <v>0</v>
       </c>
       <c r="BO128">
-        <v>110.4</v>
+        <v>66.56410256410257</v>
       </c>
       <c r="BP128">
-        <v>110.6</v>
-      </c>
-      <c r="BQ128">
-        <v>66.56410256410257</v>
-      </c>
-      <c r="BR128">
         <v>74.56410256410257</v>
       </c>
     </row>
-    <row r="129" spans="1:70">
+    <row r="129" spans="1:68">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C129" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D129" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E129">
         <v>24</v>
       </c>
       <c r="F129" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G129">
         <v>460000</v>
@@ -29102,36 +28328,30 @@
         <v>0</v>
       </c>
       <c r="BO129">
-        <v>264.2</v>
+        <v>52.1025641025641</v>
       </c>
       <c r="BP129">
-        <v>91.8</v>
-      </c>
-      <c r="BQ129">
-        <v>52.1025641025641</v>
-      </c>
-      <c r="BR129">
         <v>78.15384615384615</v>
       </c>
     </row>
-    <row r="130" spans="1:70">
+    <row r="130" spans="1:68">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C130" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D130" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E130">
         <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G130">
         <v>1925000</v>
@@ -29314,36 +28534,30 @@
         <v>0</v>
       </c>
       <c r="BO130">
-        <v>207.6</v>
+        <v>44.71794871794872</v>
       </c>
       <c r="BP130">
-        <v>295</v>
-      </c>
-      <c r="BQ130">
-        <v>44.71794871794872</v>
-      </c>
-      <c r="BR130">
         <v>27.48717948717949</v>
       </c>
     </row>
-    <row r="131" spans="1:70">
+    <row r="131" spans="1:68">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D131" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E131">
         <v>26</v>
       </c>
       <c r="F131" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G131">
         <v>3000000</v>
@@ -29526,36 +28740,30 @@
         <v>0</v>
       </c>
       <c r="BO131">
-        <v>91.59999999999999</v>
+        <v>72.30769230769231</v>
       </c>
       <c r="BP131">
-        <v>156</v>
-      </c>
-      <c r="BQ131">
-        <v>72.30769230769231</v>
-      </c>
-      <c r="BR131">
         <v>61.12820512820512</v>
       </c>
     </row>
-    <row r="132" spans="1:70">
+    <row r="132" spans="1:68">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C132" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D132" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E132">
         <v>28</v>
       </c>
       <c r="F132" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G132">
         <v>2720000</v>
@@ -29738,36 +28946,30 @@
         <v>0</v>
       </c>
       <c r="BO132">
-        <v>193</v>
+        <v>45.33333333333334</v>
       </c>
       <c r="BP132">
-        <v>139.8</v>
-      </c>
-      <c r="BQ132">
-        <v>45.33333333333334</v>
-      </c>
-      <c r="BR132">
         <v>66.97435897435898</v>
       </c>
     </row>
-    <row r="133" spans="1:70">
+    <row r="133" spans="1:68">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C133" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D133" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E133">
         <v>24</v>
       </c>
       <c r="F133" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G133">
         <v>2716667</v>
@@ -29950,36 +29152,30 @@
         <v>0</v>
       </c>
       <c r="BO133">
-        <v>129</v>
+        <v>61.33333333333333</v>
       </c>
       <c r="BP133">
-        <v>263</v>
-      </c>
-      <c r="BQ133">
-        <v>61.33333333333333</v>
-      </c>
-      <c r="BR133">
         <v>35.17948717948718</v>
       </c>
     </row>
-    <row r="134" spans="1:70">
+    <row r="134" spans="1:68">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C134" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D134" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E134">
         <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G134">
         <v>1050240</v>
@@ -30162,36 +29358,30 @@
         <v>0</v>
       </c>
       <c r="BO134">
-        <v>196</v>
+        <v>43.28205128205128</v>
       </c>
       <c r="BP134">
-        <v>259.4</v>
-      </c>
-      <c r="BQ134">
-        <v>43.28205128205128</v>
-      </c>
-      <c r="BR134">
         <v>34.15384615384615</v>
       </c>
     </row>
-    <row r="135" spans="1:70">
+    <row r="135" spans="1:68">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D135" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E135">
         <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G135">
         <v>1100000</v>
@@ -30374,27 +29564,21 @@
         <v>0</v>
       </c>
       <c r="BO135">
-        <v>239.6</v>
+        <v>30.66666666666666</v>
       </c>
       <c r="BP135">
-        <v>177</v>
-      </c>
-      <c r="BQ135">
-        <v>30.66666666666666</v>
-      </c>
-      <c r="BR135">
         <v>56.30769230769231</v>
       </c>
     </row>
-    <row r="136" spans="1:70">
+    <row r="136" spans="1:68">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C136" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D136" t="s">
         <v>29</v>
@@ -30403,7 +29587,7 @@
         <v>21</v>
       </c>
       <c r="F136" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G136">
         <v>1583040</v>
@@ -30586,27 +29770,21 @@
         <v>0</v>
       </c>
       <c r="BO136">
-        <v>90</v>
+        <v>72.82051282051282</v>
       </c>
       <c r="BP136">
-        <v>69.2</v>
-      </c>
-      <c r="BQ136">
-        <v>72.82051282051282</v>
-      </c>
-      <c r="BR136">
         <v>86.35897435897436</v>
       </c>
     </row>
-    <row r="137" spans="1:70">
+    <row r="137" spans="1:68">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C137" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D137" t="s">
         <v>29</v>
@@ -30615,7 +29793,7 @@
         <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G137">
         <v>5236000</v>
@@ -30798,36 +29976,30 @@
         <v>0</v>
       </c>
       <c r="BO137">
-        <v>95</v>
+        <v>71.28205128205128</v>
       </c>
       <c r="BP137">
-        <v>298</v>
-      </c>
-      <c r="BQ137">
-        <v>71.28205128205128</v>
-      </c>
-      <c r="BR137">
         <v>25.64102564102564</v>
       </c>
     </row>
-    <row r="138" spans="1:70">
+    <row r="138" spans="1:68">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C138" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D138" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E138">
         <v>20</v>
       </c>
       <c r="F138" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G138">
         <v>2445480</v>
@@ -31010,36 +30182,30 @@
         <v>0</v>
       </c>
       <c r="BO138">
-        <v>46</v>
+        <v>84.2051282051282</v>
       </c>
       <c r="BP138">
-        <v>134</v>
-      </c>
-      <c r="BQ138">
-        <v>84.2051282051282</v>
-      </c>
-      <c r="BR138">
         <v>67.7948717948718</v>
       </c>
     </row>
-    <row r="139" spans="1:70">
+    <row r="139" spans="1:68">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D139" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E139">
         <v>24</v>
       </c>
       <c r="F139" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G139">
         <v>3456240</v>
@@ -31219,36 +30385,30 @@
         <v>0</v>
       </c>
       <c r="BO139">
-        <v>231</v>
+        <v>60.41025641025642</v>
       </c>
       <c r="BP139">
-        <v>342.6</v>
-      </c>
-      <c r="BQ139">
-        <v>60.41025641025642</v>
-      </c>
-      <c r="BR139">
         <v>16.61538461538462</v>
       </c>
     </row>
-    <row r="140" spans="1:70">
+    <row r="140" spans="1:68">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C140" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D140" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E140">
         <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G140">
         <v>4050000</v>
@@ -31431,36 +30591,30 @@
         <v>0</v>
       </c>
       <c r="BO140">
-        <v>186.2</v>
+        <v>50.05128205128205</v>
       </c>
       <c r="BP140">
-        <v>252.4</v>
-      </c>
-      <c r="BQ140">
-        <v>50.05128205128205</v>
-      </c>
-      <c r="BR140">
         <v>38.87179487179487</v>
       </c>
     </row>
-    <row r="141" spans="1:70">
+    <row r="141" spans="1:68">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C141" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D141" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E141">
         <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G141">
         <v>2495500</v>
@@ -31643,36 +30797,30 @@
         <v>0</v>
       </c>
       <c r="BO141">
-        <v>191.8</v>
+        <v>47.38461538461539</v>
       </c>
       <c r="BP141">
-        <v>185</v>
-      </c>
-      <c r="BQ141">
-        <v>47.38461538461539</v>
-      </c>
-      <c r="BR141">
         <v>53.84615384615385</v>
       </c>
     </row>
-    <row r="142" spans="1:70">
+    <row r="142" spans="1:68">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C142" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D142" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E142">
         <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G142">
         <v>2000000</v>
@@ -31855,36 +31003,30 @@
         <v>0</v>
       </c>
       <c r="BO142">
-        <v>263.8</v>
+        <v>29.23076923076923</v>
       </c>
       <c r="BP142">
-        <v>236.8</v>
-      </c>
-      <c r="BQ142">
-        <v>29.23076923076923</v>
-      </c>
-      <c r="BR142">
         <v>42.46153846153846</v>
       </c>
     </row>
-    <row r="143" spans="1:70">
+    <row r="143" spans="1:68">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C143" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D143" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E143">
         <v>28</v>
       </c>
       <c r="F143" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G143">
         <v>4900000</v>
@@ -32067,36 +31209,30 @@
         <v>0</v>
       </c>
       <c r="BO143">
-        <v>191.6</v>
+        <v>42.05128205128205</v>
       </c>
       <c r="BP143">
-        <v>216.6</v>
-      </c>
-      <c r="BQ143">
-        <v>42.05128205128205</v>
-      </c>
-      <c r="BR143">
         <v>45.33333333333334</v>
       </c>
     </row>
-    <row r="144" spans="1:70">
+    <row r="144" spans="1:68">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C144" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D144" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E144">
         <v>29</v>
       </c>
       <c r="F144" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G144">
         <v>2000000</v>
@@ -32279,36 +31415,30 @@
         <v>0</v>
       </c>
       <c r="BO144">
-        <v>213.6</v>
+        <v>39.28205128205128</v>
       </c>
       <c r="BP144">
-        <v>227.2</v>
-      </c>
-      <c r="BQ144">
-        <v>39.28205128205128</v>
-      </c>
-      <c r="BR144">
         <v>42.25641025641026</v>
       </c>
     </row>
-    <row r="145" spans="1:70">
+    <row r="145" spans="1:68">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C145" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D145" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E145">
         <v>22</v>
       </c>
       <c r="F145" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G145">
         <v>1503960</v>
@@ -32491,36 +31621,30 @@
         <v>0</v>
       </c>
       <c r="BO145">
-        <v>52.6</v>
+        <v>82.76923076923077</v>
       </c>
       <c r="BP145">
-        <v>47.4</v>
-      </c>
-      <c r="BQ145">
-        <v>82.76923076923077</v>
-      </c>
-      <c r="BR145">
         <v>90.87179487179486</v>
       </c>
     </row>
-    <row r="146" spans="1:70">
+    <row r="146" spans="1:68">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C146" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D146" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E146">
         <v>24</v>
       </c>
       <c r="F146" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G146">
         <v>1000000</v>
@@ -32700,36 +31824,30 @@
         <v>0</v>
       </c>
       <c r="BO146">
-        <v>265.2</v>
+        <v>50.66666666666666</v>
       </c>
       <c r="BP146">
-        <v>127.4</v>
-      </c>
-      <c r="BQ146">
-        <v>50.66666666666666</v>
-      </c>
-      <c r="BR146">
         <v>70.97435897435898</v>
       </c>
     </row>
-    <row r="147" spans="1:70">
+    <row r="147" spans="1:68">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C147" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D147" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E147">
         <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G147">
         <v>2000000</v>
@@ -32912,36 +32030,30 @@
         <v>0</v>
       </c>
       <c r="BO147">
-        <v>187.6</v>
+        <v>48.30769230769231</v>
       </c>
       <c r="BP147">
-        <v>83.8</v>
-      </c>
-      <c r="BQ147">
-        <v>48.30769230769231</v>
-      </c>
-      <c r="BR147">
         <v>82.05128205128204</v>
       </c>
     </row>
-    <row r="148" spans="1:70">
+    <row r="148" spans="1:68">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C148" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D148" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E148">
         <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G148">
         <v>974520</v>
@@ -33124,36 +32236,30 @@
         <v>0</v>
       </c>
       <c r="BO148">
-        <v>139.6</v>
+        <v>60.92307692307693</v>
       </c>
       <c r="BP148">
-        <v>175.6</v>
-      </c>
-      <c r="BQ148">
-        <v>60.92307692307693</v>
-      </c>
-      <c r="BR148">
         <v>58.56410256410256</v>
       </c>
     </row>
-    <row r="149" spans="1:70">
+    <row r="149" spans="1:68">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C149" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D149" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E149">
         <v>24</v>
       </c>
       <c r="F149" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G149">
         <v>3810000</v>
@@ -33336,27 +32442,21 @@
         <v>0</v>
       </c>
       <c r="BO149">
-        <v>178</v>
+        <v>50.66666666666666</v>
       </c>
       <c r="BP149">
-        <v>231</v>
-      </c>
-      <c r="BQ149">
-        <v>50.66666666666666</v>
-      </c>
-      <c r="BR149">
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:70">
+    <row r="150" spans="1:68">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C150" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D150" t="s">
         <v>29</v>
@@ -33365,7 +32465,7 @@
         <v>26</v>
       </c>
       <c r="F150" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G150">
         <v>7031250</v>
@@ -33545,27 +32645,21 @@
         <v>0</v>
       </c>
       <c r="BO150">
-        <v>218.6</v>
+        <v>63.69230769230769</v>
       </c>
       <c r="BP150">
-        <v>104.6</v>
-      </c>
-      <c r="BQ150">
-        <v>63.69230769230769</v>
-      </c>
-      <c r="BR150">
         <v>77.12820512820512</v>
       </c>
     </row>
-    <row r="151" spans="1:70">
+    <row r="151" spans="1:68">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C151" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
@@ -33574,7 +32668,7 @@
         <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G151">
         <v>2000000</v>
@@ -33757,36 +32851,30 @@
         <v>0</v>
       </c>
       <c r="BO151">
-        <v>275.8</v>
+        <v>25.53846153846154</v>
       </c>
       <c r="BP151">
-        <v>321.8</v>
-      </c>
-      <c r="BQ151">
-        <v>25.53846153846154</v>
-      </c>
-      <c r="BR151">
         <v>20.41025641025641</v>
       </c>
     </row>
-    <row r="152" spans="1:70">
+    <row r="152" spans="1:68">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C152" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D152" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E152">
         <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G152">
         <v>7000000</v>
@@ -33969,36 +33057,30 @@
         <v>0</v>
       </c>
       <c r="BO152">
-        <v>166.6</v>
+        <v>53.53846153846155</v>
       </c>
       <c r="BP152">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="BQ152">
-        <v>53.53846153846155</v>
-      </c>
-      <c r="BR152">
         <v>83.4871794871795</v>
       </c>
     </row>
-    <row r="153" spans="1:70">
+    <row r="153" spans="1:68">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C153" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D153" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E153">
         <v>28</v>
       </c>
       <c r="F153" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G153">
         <v>5410000</v>
@@ -34181,36 +33263,30 @@
         <v>0</v>
       </c>
       <c r="BO153">
-        <v>150.8</v>
+        <v>59.07692307692308</v>
       </c>
       <c r="BP153">
-        <v>183</v>
-      </c>
-      <c r="BQ153">
-        <v>59.07692307692308</v>
-      </c>
-      <c r="BR153">
         <v>53.02564102564102</v>
       </c>
     </row>
-    <row r="154" spans="1:70">
+    <row r="154" spans="1:68">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C154" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D154" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E154">
         <v>29</v>
       </c>
       <c r="F154" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G154">
         <v>102824</v>
@@ -34393,36 +33469,30 @@
         <v>0</v>
       </c>
       <c r="BO154">
-        <v>301.4</v>
+        <v>20.30769230769231</v>
       </c>
       <c r="BP154">
-        <v>354.2</v>
-      </c>
-      <c r="BQ154">
-        <v>20.30769230769231</v>
-      </c>
-      <c r="BR154">
         <v>14.56410256410256</v>
       </c>
     </row>
-    <row r="155" spans="1:70">
+    <row r="155" spans="1:68">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C155" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D155" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E155">
         <v>23</v>
       </c>
       <c r="F155" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G155">
         <v>301875</v>
@@ -34605,36 +33675,30 @@
         <v>0</v>
       </c>
       <c r="BO155">
-        <v>392.6</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="BP155">
-        <v>376.6</v>
-      </c>
-      <c r="BQ155">
-        <v>4.615384615384616</v>
-      </c>
-      <c r="BR155">
         <v>8.717948717948717</v>
       </c>
     </row>
-    <row r="156" spans="1:70">
+    <row r="156" spans="1:68">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C156" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D156" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E156">
         <v>27</v>
       </c>
       <c r="F156" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G156">
         <v>7250000</v>
@@ -34817,36 +33881,30 @@
         <v>0</v>
       </c>
       <c r="BO156">
-        <v>90.2</v>
+        <v>72.82051282051282</v>
       </c>
       <c r="BP156">
-        <v>113.4</v>
-      </c>
-      <c r="BQ156">
-        <v>72.82051282051282</v>
-      </c>
-      <c r="BR156">
         <v>71.48717948717949</v>
       </c>
     </row>
-    <row r="157" spans="1:70">
+    <row r="157" spans="1:68">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C157" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D157" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E157">
         <v>28</v>
       </c>
       <c r="F157" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G157">
         <v>2100000</v>
@@ -35029,36 +34087,30 @@
         <v>0</v>
       </c>
       <c r="BO157">
-        <v>201</v>
+        <v>44.4102564102564</v>
       </c>
       <c r="BP157">
-        <v>177.6</v>
-      </c>
-      <c r="BQ157">
-        <v>44.4102564102564</v>
-      </c>
-      <c r="BR157">
         <v>57.23076923076923</v>
       </c>
     </row>
-    <row r="158" spans="1:70">
+    <row r="158" spans="1:68">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C158" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D158" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E158">
         <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G158">
         <v>1920000</v>
@@ -35238,27 +34290,21 @@
         <v>0</v>
       </c>
       <c r="BO158">
-        <v>268.6</v>
+        <v>50.66666666666666</v>
       </c>
       <c r="BP158">
-        <v>274.2</v>
-      </c>
-      <c r="BQ158">
-        <v>50.66666666666666</v>
-      </c>
-      <c r="BR158">
         <v>30.05128205128205</v>
       </c>
     </row>
-    <row r="159" spans="1:70">
+    <row r="159" spans="1:68">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C159" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D159" t="s">
         <v>29</v>
@@ -35267,7 +34313,7 @@
         <v>25</v>
       </c>
       <c r="F159" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G159">
         <v>2285000</v>
@@ -35450,36 +34496,30 @@
         <v>0</v>
       </c>
       <c r="BO159">
-        <v>196.4</v>
+        <v>44.4102564102564</v>
       </c>
       <c r="BP159">
-        <v>161.2</v>
-      </c>
-      <c r="BQ159">
-        <v>44.4102564102564</v>
-      </c>
-      <c r="BR159">
         <v>60.92307692307693</v>
       </c>
     </row>
-    <row r="160" spans="1:70">
+    <row r="160" spans="1:68">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D160" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E160">
         <v>29</v>
       </c>
       <c r="F160" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G160">
         <v>1100000</v>
@@ -35662,36 +34702,30 @@
         <v>0</v>
       </c>
       <c r="BO160">
-        <v>147.8</v>
+        <v>57.94871794871796</v>
       </c>
       <c r="BP160">
-        <v>151.4</v>
-      </c>
-      <c r="BQ160">
-        <v>57.94871794871796</v>
-      </c>
-      <c r="BR160">
         <v>63.8974358974359</v>
       </c>
     </row>
-    <row r="161" spans="1:70">
+    <row r="161" spans="1:68">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C161" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D161" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E161">
         <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G161">
         <v>510000</v>
@@ -35874,27 +34908,21 @@
         <v>0</v>
       </c>
       <c r="BO161">
-        <v>220.4</v>
+        <v>35.79487179487179</v>
       </c>
       <c r="BP161">
-        <v>289.2</v>
-      </c>
-      <c r="BQ161">
-        <v>35.79487179487179</v>
-      </c>
-      <c r="BR161">
         <v>25.53846153846154</v>
       </c>
     </row>
-    <row r="162" spans="1:70">
+    <row r="162" spans="1:68">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C162" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D162" t="s">
         <v>29</v>
@@ -35903,7 +34931,7 @@
         <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G162">
         <v>843000</v>
@@ -36083,36 +35111,30 @@
         <v>0</v>
       </c>
       <c r="BO162">
-        <v>253.6</v>
+        <v>56.51282051282052</v>
       </c>
       <c r="BP162">
-        <v>282.4</v>
-      </c>
-      <c r="BQ162">
-        <v>56.51282051282052</v>
-      </c>
-      <c r="BR162">
         <v>31.07692307692308</v>
       </c>
     </row>
-    <row r="163" spans="1:70">
+    <row r="163" spans="1:68">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C163" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D163" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E163">
         <v>24</v>
       </c>
       <c r="F163" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G163">
         <v>2100000</v>
@@ -36295,36 +35317,30 @@
         <v>0</v>
       </c>
       <c r="BO163">
-        <v>142.8</v>
+        <v>57.84615384615385</v>
       </c>
       <c r="BP163">
-        <v>154.4</v>
-      </c>
-      <c r="BQ163">
-        <v>57.84615384615385</v>
-      </c>
-      <c r="BR163">
         <v>62.97435897435897</v>
       </c>
     </row>
-    <row r="164" spans="1:70">
+    <row r="164" spans="1:68">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C164" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D164" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E164">
         <v>27</v>
       </c>
       <c r="F164" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G164">
         <v>2000000</v>
@@ -36507,36 +35523,30 @@
         <v>0</v>
       </c>
       <c r="BO164">
-        <v>165.8</v>
+        <v>51.28205128205128</v>
       </c>
       <c r="BP164">
-        <v>153</v>
-      </c>
-      <c r="BQ164">
-        <v>51.28205128205128</v>
-      </c>
-      <c r="BR164">
         <v>64.41025641025641</v>
       </c>
     </row>
-    <row r="165" spans="1:70">
+    <row r="165" spans="1:68">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C165" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D165" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E165">
         <v>26</v>
       </c>
       <c r="F165" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G165">
         <v>3000000</v>
@@ -36719,36 +35729,30 @@
         <v>0</v>
       </c>
       <c r="BO165">
-        <v>139.2</v>
+        <v>60.30769230769231</v>
       </c>
       <c r="BP165">
-        <v>234.6</v>
-      </c>
-      <c r="BQ165">
-        <v>60.30769230769231</v>
-      </c>
-      <c r="BR165">
         <v>43.28205128205128</v>
       </c>
     </row>
-    <row r="166" spans="1:70">
+    <row r="166" spans="1:68">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C166" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D166" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E166">
         <v>25</v>
       </c>
       <c r="F166" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G166">
         <v>4781250</v>
@@ -36931,36 +35935,30 @@
         <v>0</v>
       </c>
       <c r="BO166">
-        <v>83.2</v>
+        <v>75.48717948717947</v>
       </c>
       <c r="BP166">
-        <v>68.2</v>
-      </c>
-      <c r="BQ166">
-        <v>75.48717948717947</v>
-      </c>
-      <c r="BR166">
         <v>85.43589743589743</v>
       </c>
     </row>
-    <row r="167" spans="1:70">
+    <row r="167" spans="1:68">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D167" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E167">
         <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G167">
         <v>5290000</v>
@@ -37143,36 +36141,30 @@
         <v>0</v>
       </c>
       <c r="BO167">
-        <v>247.6</v>
+        <v>32.92307692307693</v>
       </c>
       <c r="BP167">
-        <v>176.4</v>
-      </c>
-      <c r="BQ167">
-        <v>32.92307692307693</v>
-      </c>
-      <c r="BR167">
         <v>56.51282051282052</v>
       </c>
     </row>
-    <row r="168" spans="1:70">
+    <row r="168" spans="1:68">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D168" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E168">
         <v>22</v>
       </c>
       <c r="F168" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G168">
         <v>1310400</v>
@@ -37355,36 +36347,30 @@
         <v>0</v>
       </c>
       <c r="BO168">
-        <v>192.8</v>
+        <v>45.12820512820513</v>
       </c>
       <c r="BP168">
-        <v>95</v>
-      </c>
-      <c r="BQ168">
-        <v>45.12820512820513</v>
-      </c>
-      <c r="BR168">
         <v>79.58974358974359</v>
       </c>
     </row>
-    <row r="169" spans="1:70">
+    <row r="169" spans="1:68">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D169" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E169">
         <v>26</v>
       </c>
       <c r="F169" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G169">
         <v>2240000</v>
@@ -37567,36 +36553,30 @@
         <v>0</v>
       </c>
       <c r="BO169">
-        <v>108.8</v>
+        <v>67.69230769230769</v>
       </c>
       <c r="BP169">
-        <v>114.4</v>
-      </c>
-      <c r="BQ169">
-        <v>67.69230769230769</v>
-      </c>
-      <c r="BR169">
         <v>75.17948717948718</v>
       </c>
     </row>
-    <row r="170" spans="1:70">
+    <row r="170" spans="1:68">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C170" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D170" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E170">
         <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G170">
         <v>10000000</v>
@@ -37779,36 +36759,30 @@
         <v>0</v>
       </c>
       <c r="BO170">
-        <v>105.2</v>
+        <v>72.00000000000001</v>
       </c>
       <c r="BP170">
-        <v>152.6</v>
-      </c>
-      <c r="BQ170">
-        <v>72.00000000000001</v>
-      </c>
-      <c r="BR170">
         <v>63.07692307692307</v>
       </c>
     </row>
-    <row r="171" spans="1:70">
+    <row r="171" spans="1:68">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C171" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D171" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E171">
         <v>26</v>
       </c>
       <c r="F171" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G171">
         <v>3760000</v>
@@ -37991,36 +36965,30 @@
         <v>0</v>
       </c>
       <c r="BO171">
-        <v>114.4</v>
+        <v>68.92307692307693</v>
       </c>
       <c r="BP171">
-        <v>105.2</v>
-      </c>
-      <c r="BQ171">
-        <v>68.92307692307693</v>
-      </c>
-      <c r="BR171">
         <v>76.61538461538461</v>
       </c>
     </row>
-    <row r="172" spans="1:70">
+    <row r="172" spans="1:68">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C172" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D172" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E172">
         <v>22</v>
       </c>
       <c r="F172" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G172">
         <v>2011440</v>
@@ -38203,27 +37171,21 @@
         <v>0</v>
       </c>
       <c r="BO172">
-        <v>147.2</v>
+        <v>57.84615384615385</v>
       </c>
       <c r="BP172">
-        <v>116.2</v>
-      </c>
-      <c r="BQ172">
-        <v>57.84615384615385</v>
-      </c>
-      <c r="BR172">
         <v>74.97435897435896</v>
       </c>
     </row>
-    <row r="173" spans="1:70">
+    <row r="173" spans="1:68">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C173" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D173" t="s">
         <v>29</v>
@@ -38232,7 +37194,7 @@
         <v>23</v>
       </c>
       <c r="F173" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G173">
         <v>1367400</v>
@@ -38415,36 +37377,30 @@
         <v>0</v>
       </c>
       <c r="BO173">
-        <v>101.2</v>
+        <v>68.41025641025641</v>
       </c>
       <c r="BP173">
-        <v>266.2</v>
-      </c>
-      <c r="BQ173">
-        <v>68.41025641025641</v>
-      </c>
-      <c r="BR173">
         <v>35.38461538461539</v>
       </c>
     </row>
-    <row r="174" spans="1:70">
+    <row r="174" spans="1:68">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C174" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D174" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E174">
         <v>22</v>
       </c>
       <c r="F174" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G174">
         <v>1468920</v>
@@ -38627,27 +37583,21 @@
         <v>0</v>
       </c>
       <c r="BO174">
-        <v>175</v>
+        <v>51.69230769230769</v>
       </c>
       <c r="BP174">
-        <v>225.2</v>
-      </c>
-      <c r="BQ174">
-        <v>51.69230769230769</v>
-      </c>
-      <c r="BR174">
         <v>41.94871794871794</v>
       </c>
     </row>
-    <row r="175" spans="1:70">
+    <row r="175" spans="1:68">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C175" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D175" t="s">
         <v>29</v>
@@ -38656,7 +37606,7 @@
         <v>22</v>
       </c>
       <c r="F175" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G175">
         <v>823440</v>
@@ -38839,36 +37789,30 @@
         <v>0</v>
       </c>
       <c r="BO175">
-        <v>160.2</v>
+        <v>56.71794871794872</v>
       </c>
       <c r="BP175">
-        <v>252</v>
-      </c>
-      <c r="BQ175">
-        <v>56.71794871794872</v>
-      </c>
-      <c r="BR175">
         <v>35.38461538461539</v>
       </c>
     </row>
-    <row r="176" spans="1:70">
+    <row r="176" spans="1:68">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C176" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D176" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E176">
         <v>22</v>
       </c>
       <c r="F176" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G176">
         <v>2098560</v>
@@ -39051,27 +37995,21 @@
         <v>0</v>
       </c>
       <c r="BO176">
-        <v>157</v>
+        <v>56.71794871794872</v>
       </c>
       <c r="BP176">
-        <v>141.6</v>
-      </c>
-      <c r="BQ176">
-        <v>56.71794871794872</v>
-      </c>
-      <c r="BR176">
         <v>64.51282051282051</v>
       </c>
     </row>
-    <row r="177" spans="1:70">
+    <row r="177" spans="1:68">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C177" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D177" t="s">
         <v>29</v>
@@ -39080,7 +38018,7 @@
         <v>22</v>
       </c>
       <c r="F177" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G177">
         <v>2059320</v>
@@ -39263,36 +38201,30 @@
         <v>0</v>
       </c>
       <c r="BO177">
-        <v>235.4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="BP177">
-        <v>170.2</v>
-      </c>
-      <c r="BQ177">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="BR177">
         <v>59.07692307692308</v>
       </c>
     </row>
-    <row r="178" spans="1:70">
+    <row r="178" spans="1:68">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C178" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D178" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E178">
         <v>25</v>
       </c>
       <c r="F178" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G178">
         <v>2000000</v>
@@ -39475,36 +38407,30 @@
         <v>0</v>
       </c>
       <c r="BO178">
-        <v>152.2</v>
+        <v>58.05128205128205</v>
       </c>
       <c r="BP178">
-        <v>218.8</v>
-      </c>
-      <c r="BQ178">
-        <v>58.05128205128205</v>
-      </c>
-      <c r="BR178">
         <v>45.64102564102564</v>
       </c>
     </row>
-    <row r="179" spans="1:70">
+    <row r="179" spans="1:68">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C179" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D179" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E179">
         <v>23</v>
       </c>
       <c r="F179" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G179">
         <v>30000</v>
@@ -39684,36 +38610,30 @@
         <v>0</v>
       </c>
       <c r="BO179">
-        <v>325.8</v>
+        <v>41.64102564102564</v>
       </c>
       <c r="BP179">
-        <v>399.8</v>
-      </c>
-      <c r="BQ179">
-        <v>41.64102564102564</v>
-      </c>
-      <c r="BR179">
         <v>6.871794871794871</v>
       </c>
     </row>
-    <row r="180" spans="1:70">
+    <row r="180" spans="1:68">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C180" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D180" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E180">
         <v>28</v>
       </c>
       <c r="F180" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G180">
         <v>8354614</v>
@@ -39896,27 +38816,21 @@
         <v>0</v>
       </c>
       <c r="BO180">
-        <v>131.2</v>
+        <v>62.25641025641026</v>
       </c>
       <c r="BP180">
-        <v>160</v>
-      </c>
-      <c r="BQ180">
-        <v>62.25641025641026</v>
-      </c>
-      <c r="BR180">
         <v>61.02564102564103</v>
       </c>
     </row>
-    <row r="181" spans="1:70">
+    <row r="181" spans="1:68">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C181" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D181" t="s">
         <v>29</v>
@@ -39925,7 +38839,7 @@
         <v>24</v>
       </c>
       <c r="F181" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G181">
         <v>3451920</v>
@@ -40108,27 +39022,21 @@
         <v>0</v>
       </c>
       <c r="BO181">
-        <v>85.8</v>
+        <v>72.41025641025641</v>
       </c>
       <c r="BP181">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="BQ181">
-        <v>72.41025641025641</v>
-      </c>
-      <c r="BR181">
         <v>76.2051282051282</v>
       </c>
     </row>
-    <row r="182" spans="1:70">
+    <row r="182" spans="1:68">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C182" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
@@ -40137,7 +39045,7 @@
         <v>23</v>
       </c>
       <c r="F182" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G182">
         <v>9000000</v>
@@ -40320,27 +39228,21 @@
         <v>0</v>
       </c>
       <c r="BO182">
-        <v>62.2</v>
+        <v>81.74358974358975</v>
       </c>
       <c r="BP182">
-        <v>118.2</v>
-      </c>
-      <c r="BQ182">
-        <v>81.74358974358975</v>
-      </c>
-      <c r="BR182">
         <v>70.76923076923077</v>
       </c>
     </row>
-    <row r="183" spans="1:70">
+    <row r="183" spans="1:68">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C183" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
@@ -40349,7 +39251,7 @@
         <v>23</v>
       </c>
       <c r="F183" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G183">
         <v>2716667</v>
@@ -40529,27 +39431,21 @@
         <v>0</v>
       </c>
       <c r="BO183">
-        <v>306.8</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="BP183">
-        <v>229</v>
-      </c>
-      <c r="BQ183">
-        <v>41.33333333333334</v>
-      </c>
-      <c r="BR183">
         <v>44.30769230769231</v>
       </c>
     </row>
-    <row r="184" spans="1:70">
+    <row r="184" spans="1:68">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C184" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -40558,7 +39454,7 @@
         <v>26</v>
       </c>
       <c r="F184" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G184">
         <v>11000000</v>
@@ -40741,36 +39637,30 @@
         <v>0</v>
       </c>
       <c r="BO184">
-        <v>18.4</v>
+        <v>92.92307692307692</v>
       </c>
       <c r="BP184">
-        <v>41</v>
-      </c>
-      <c r="BQ184">
-        <v>92.92307692307692</v>
-      </c>
-      <c r="BR184">
         <v>89.94871794871796</v>
       </c>
     </row>
-    <row r="185" spans="1:70">
+    <row r="185" spans="1:68">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C185" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D185" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E185">
         <v>23</v>
       </c>
       <c r="F185" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G185">
         <v>385000</v>
@@ -40950,36 +39840,30 @@
         <v>0</v>
       </c>
       <c r="BO185">
-        <v>269.8</v>
+        <v>53.64102564102564</v>
       </c>
       <c r="BP185">
-        <v>218</v>
-      </c>
-      <c r="BQ185">
-        <v>53.64102564102564</v>
-      </c>
-      <c r="BR185">
         <v>49.64102564102564</v>
       </c>
     </row>
-    <row r="186" spans="1:70">
+    <row r="186" spans="1:68">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C186" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D186" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E186">
         <v>28</v>
       </c>
       <c r="F186" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G186">
         <v>1680000</v>
@@ -41162,27 +40046,21 @@
         <v>0</v>
       </c>
       <c r="BO186">
-        <v>201.8</v>
+        <v>42.05128205128205</v>
       </c>
       <c r="BP186">
-        <v>131.2</v>
-      </c>
-      <c r="BQ186">
-        <v>42.05128205128205</v>
-      </c>
-      <c r="BR186">
         <v>69.74358974358974</v>
       </c>
     </row>
-    <row r="187" spans="1:70">
+    <row r="187" spans="1:68">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C187" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
@@ -41191,7 +40069,7 @@
         <v>28</v>
       </c>
       <c r="F187" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G187">
         <v>1100000</v>
@@ -41374,36 +40252,30 @@
         <v>0</v>
       </c>
       <c r="BO187">
-        <v>177.4</v>
+        <v>48.30769230769231</v>
       </c>
       <c r="BP187">
-        <v>96.2</v>
-      </c>
-      <c r="BQ187">
-        <v>48.30769230769231</v>
-      </c>
-      <c r="BR187">
         <v>78.76923076923077</v>
       </c>
     </row>
-    <row r="188" spans="1:70">
+    <row r="188" spans="1:68">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C188" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D188" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E188">
         <v>25</v>
       </c>
       <c r="F188" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G188">
         <v>1925000</v>
@@ -41586,36 +40458,30 @@
         <v>0</v>
       </c>
       <c r="BO188">
-        <v>235</v>
+        <v>36.41025641025641</v>
       </c>
       <c r="BP188">
-        <v>238</v>
-      </c>
-      <c r="BQ188">
-        <v>36.41025641025641</v>
-      </c>
-      <c r="BR188">
         <v>38.66666666666667</v>
       </c>
     </row>
-    <row r="189" spans="1:70">
+    <row r="189" spans="1:68">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C189" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D189" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E189">
         <v>27</v>
       </c>
       <c r="F189" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G189">
         <v>3336000</v>
@@ -41798,36 +40664,30 @@
         <v>0</v>
       </c>
       <c r="BO189">
-        <v>224.8</v>
+        <v>39.8974358974359</v>
       </c>
       <c r="BP189">
-        <v>232.6</v>
-      </c>
-      <c r="BQ189">
-        <v>39.8974358974359</v>
-      </c>
-      <c r="BR189">
         <v>40.82051282051282</v>
       </c>
     </row>
-    <row r="190" spans="1:70">
+    <row r="190" spans="1:68">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C190" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D190" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E190">
         <v>24</v>
       </c>
       <c r="F190" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G190">
         <v>1879920</v>
@@ -42010,27 +40870,21 @@
         <v>0</v>
       </c>
       <c r="BO190">
-        <v>146.6</v>
+        <v>60.20512820512821</v>
       </c>
       <c r="BP190">
-        <v>256.2</v>
-      </c>
-      <c r="BQ190">
-        <v>60.20512820512821</v>
-      </c>
-      <c r="BR190">
         <v>34.15384615384615</v>
       </c>
     </row>
-    <row r="191" spans="1:70">
+    <row r="191" spans="1:68">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C191" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D191" t="s">
         <v>29</v>
@@ -42039,7 +40893,7 @@
         <v>26</v>
       </c>
       <c r="F191" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G191">
         <v>2550000</v>
@@ -42222,36 +41076,30 @@
         <v>0</v>
       </c>
       <c r="BO191">
-        <v>149.8</v>
+        <v>59.58974358974359</v>
       </c>
       <c r="BP191">
-        <v>102.8</v>
-      </c>
-      <c r="BQ191">
-        <v>59.58974358974359</v>
-      </c>
-      <c r="BR191">
         <v>76.61538461538461</v>
       </c>
     </row>
-    <row r="192" spans="1:70">
+    <row r="192" spans="1:68">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C192" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D192" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E192">
         <v>31</v>
       </c>
       <c r="F192" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G192">
         <v>3750000</v>
@@ -42431,36 +41279,30 @@
         <v>0</v>
       </c>
       <c r="BO192">
-        <v>261.2</v>
+        <v>54.66666666666666</v>
       </c>
       <c r="BP192">
-        <v>162.6</v>
-      </c>
-      <c r="BQ192">
-        <v>54.66666666666666</v>
-      </c>
-      <c r="BR192">
         <v>61.33333333333333</v>
       </c>
     </row>
-    <row r="193" spans="1:70">
+    <row r="193" spans="1:68">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C193" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D193" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E193">
         <v>29</v>
       </c>
       <c r="F193" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G193">
         <v>3750000</v>
@@ -42643,36 +41485,30 @@
         <v>0</v>
       </c>
       <c r="BO193">
-        <v>146.6</v>
+        <v>59.17948717948718</v>
       </c>
       <c r="BP193">
-        <v>109.4</v>
-      </c>
-      <c r="BQ193">
-        <v>59.17948717948718</v>
-      </c>
-      <c r="BR193">
         <v>75.69230769230769</v>
       </c>
     </row>
-    <row r="194" spans="1:70">
+    <row r="194" spans="1:68">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C194" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D194" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E194">
         <v>26</v>
       </c>
       <c r="F194" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G194">
         <v>3560000</v>
@@ -42852,27 +41688,21 @@
         <v>0</v>
       </c>
       <c r="BO194">
-        <v>297.6</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="BP194">
-        <v>153.8</v>
-      </c>
-      <c r="BQ194">
-        <v>46.15384615384615</v>
-      </c>
-      <c r="BR194">
         <v>62.15384615384616</v>
       </c>
     </row>
-    <row r="195" spans="1:70">
+    <row r="195" spans="1:68">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C195" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D195" t="s">
         <v>29</v>
@@ -42881,7 +41711,7 @@
         <v>37</v>
       </c>
       <c r="F195" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G195">
         <v>2625000</v>
@@ -43064,36 +41894,30 @@
         <v>0</v>
       </c>
       <c r="BO195">
-        <v>183</v>
+        <v>46.56410256410256</v>
       </c>
       <c r="BP195">
-        <v>287</v>
-      </c>
-      <c r="BQ195">
-        <v>46.56410256410256</v>
-      </c>
-      <c r="BR195">
         <v>29.74358974358974</v>
       </c>
     </row>
-    <row r="196" spans="1:70">
+    <row r="196" spans="1:68">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C196" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D196" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E196">
         <v>24</v>
       </c>
       <c r="F196" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G196">
         <v>4400000</v>
@@ -43276,15 +42100,9 @@
         <v>0</v>
       </c>
       <c r="BO196">
-        <v>232.8</v>
+        <v>33.74358974358974</v>
       </c>
       <c r="BP196">
-        <v>234.6</v>
-      </c>
-      <c r="BQ196">
-        <v>33.74358974358974</v>
-      </c>
-      <c r="BR196">
         <v>44.4102564102564</v>
       </c>
     </row>
